--- a/Assets/Excel/SkillDesc.xlsx
+++ b/Assets/Excel/SkillDesc.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="70">
   <si>
     <t>//Remark</t>
   </si>
@@ -43,145 +43,151 @@
     <t>Fire Ball</t>
   </si>
   <si>
-    <t>Deal &lt;sprite="Common" name="ATK"&gt; ATK + 2 damage.
-Apply one level burning.</t>
+    <t>Deal &lt;sprite="Common" name="ATK"&gt; ATK + 3 damage.
+Apply 1 level Burning.</t>
   </si>
   <si>
     <t>Quick Cast</t>
   </si>
   <si>
-    <t>&lt;sprite="Common" name="AP"&gt; AP Cost of Fire Ball - 1, but damage - 4.</t>
+    <t>&lt;sprite="Common" name="AP"&gt; AP Cost - 1 for &lt;b&gt;Fire Ball&lt;/b&gt;
+Damage - 4 for &lt;b&gt;Fire Ball&lt;/b&gt;</t>
   </si>
   <si>
     <t>Inferno</t>
   </si>
   <si>
-    <t>&lt;sprite="Common" name="Radius"&gt; Radius + 1 for Fire Ball
-Damage of Fire Ball reduce 25%.</t>
+    <t>&lt;sprite="Common" name="Radius"&gt; Radius + 1 for &lt;b&gt;Fire Ball&lt;/b&gt;
+Damage of &lt;b&gt;Fire Ball&lt;/b&gt; reduce 25%.</t>
   </si>
   <si>
     <t>Focus</t>
   </si>
   <si>
-    <t>Fire Ball will cost all AP, each extra AP deal more damage.</t>
+    <t>&lt;b&gt;Fire Ball&lt;/b&gt; will cost all &lt;sprite="Common" name="AP"&gt; AP
+Each extra &lt;sprite="Common" name="AP"&gt; AP deal more damage.</t>
   </si>
   <si>
     <t>Boom!</t>
   </si>
   <si>
-    <t>Deal damage according to burning.</t>
+    <t>Select All Burning Targets.
+Deal damage equal to Burning X 2.5.</t>
   </si>
   <si>
     <t xml:space="preserve">Gravity </t>
   </si>
   <si>
-    <t>Magic attack that reduce movement.
-Deal damage according to difference of movement between source and target.</t>
+    <t>Deal &lt;sprite="Common" name="ATK"&gt; ATK - 1 damage.
+Reduce targets' &lt;sprite="Common" name="MOV"&gt; MOV.
+Damage will increase if higher &lt;sprite="Common" name="MOV"&gt; MOV of source and lower &lt;sprite="Common" name="MOV"&gt; MOV of target.</t>
   </si>
   <si>
     <t>Genesis</t>
   </si>
   <si>
-    <t>Gravity can break stone and randomly create special tile.</t>
+    <t>&lt;b&gt;Gravity&lt;/b&gt; can break &lt;sprite="Tile" name="StoneT"&gt;Stone tile.
+Randomly create special tile like &lt;sprite="Tile" name="MagicT"&gt; &lt;sprite="Tile" name="DuelT"&gt; &lt;sprite="Tile" name="GuardT"&gt; &lt;sprite="Tile" name="StealthT"&gt;</t>
   </si>
   <si>
     <t>Chronal Shift</t>
   </si>
   <si>
-    <t>Dodge next attack.</t>
+    <t>Dodge next attack from &lt;sprite="Target" name="CUnit"&gt; Character,&lt;sprite="Target" name="FUnit"&gt; Foe or &lt;sprite="Target" name="PUnit"&gt; Plant.</t>
   </si>
   <si>
     <t>Fourtain</t>
   </si>
   <si>
-    <t>Magic attack that can heal plants in the range.</t>
+    <t>Deal damage to &lt;sprite="Target" name="FUnit"&gt; Foe equal to &lt;sprite="Common" name="RES"&gt; RESX2 + 1.
+Heal &lt;sprite="Target" name="PUnit"&gt; Plant equal to &lt;sprite="Common" name="RES"&gt; RES X2 + 1.</t>
   </si>
   <si>
     <t>Clean</t>
   </si>
   <si>
-    <t>Remove 1 debuff for an ally or remove 1 buff for foe.</t>
+    <t>Remove 1 debuff for &lt;sprite="Target" name="CUnit"&gt; Character or &lt;sprite="Target" name="PUnit"&gt; Plant
+Remove 1 buff for &lt;sprite="Target" name="FUnit"&gt; Foe</t>
   </si>
   <si>
     <t>Drown</t>
   </si>
   <si>
-    <t>AP Cost of Fourtain +1.
-Fourtain will turn soil tile into water tile.</t>
+    <t>&lt;sprite="Common" name="AP"&gt; AP Cost + 1 for &lt;b&gt;Fourtain&lt;/b&gt;
+&lt;b&gt;Fourtain&lt;/b&gt; will turn &lt;sprite="Tile" name="SoilT"&gt; Soil tile into &lt;sprite="Tile" name="WaterT"&gt; Water tile.</t>
   </si>
   <si>
     <t>Lightning Bolt</t>
   </si>
   <si>
-    <t>Magic attack that can be transmitted damage by water tile.
-The damage will reduce according to distance.</t>
+    <t>Deal &lt;sprite="Common" name="ATK"&gt; ATK + 4 damage.
+Damage can be transmitted by &lt;sprite="Tile" name="WaterT"&gt; Water tile.
+But damage will reduce according to distance.</t>
   </si>
   <si>
     <t>Teleport</t>
   </si>
   <si>
-    <t>Change one character or plant position.</t>
+    <t>Change position of &lt;sprite="Target" name="CUnit"&gt; Character or &lt;sprite="Target" name="PUnit"&gt; Plant.
+Distance of &lt;b&gt;Teleport&lt;/b&gt; will determined by &lt;sprite="Common" name="MOV"&gt; MOV.</t>
   </si>
   <si>
     <t>High Voltage</t>
   </si>
   <si>
-    <t>The damage decay of Lightning Bolt will be reduced.</t>
+    <t>The damage decay of &lt;b&gt;Lightning Bolt&lt;/b&gt; will be reduced.</t>
   </si>
   <si>
     <t>Time Expand</t>
   </si>
   <si>
-    <t>Double the level of all debuff for foe or buff for allies</t>
+    <t>Double the level of all debuff for &lt;sprite="Target" name="FUnit"&gt; Foe
+buff for &lt;sprite="Target" name="CUnit"&gt; Character or &lt;sprite="Target" name="PUnit"&gt; Plant</t>
   </si>
   <si>
     <t>Infinity</t>
   </si>
   <si>
     <t>Gain 3 Infinity.
-Infinity can enlarge next X skills' radius by 1 unit.</t>
+Infinity can enlarge next X skills' &lt;sprite="Common" name="Radius"&gt; Radius by 1.</t>
   </si>
   <si>
     <t>Rabbit Chant</t>
   </si>
   <si>
-    <t>Increase skill range and AP but can't get Movement when turn starts.</t>
+    <t>&lt;sprite="Common" name="Range"&gt; Range + 2 and &lt;sprite="Common" name="AP"&gt; AP + 1
+Can't regain &lt;sprite="Common" name="MOV"&gt; MOV when turn starts.</t>
   </si>
   <si>
     <t>Strike</t>
   </si>
   <si>
-    <t>Normal Attack,deal ATK damage.</t>
-  </si>
-  <si>
     <t>Worker Wind</t>
   </si>
   <si>
-    <t>Deal damage to enemy around.</t>
-  </si>
-  <si>
     <t>Injury Benefit</t>
   </si>
   <si>
-    <t>Deal more damage when lost more HP.</t>
+    <t>Deal 1 more damage when lost 3 &lt;sprite="Common" name="HP"&gt; HP.</t>
   </si>
   <si>
     <t>Overtime Work</t>
   </si>
   <si>
-    <t>Gain extra AP every turn but gain burning as well.</t>
+    <t>Gain extra &lt;sprite="Common" name="AP"&gt; AP every turn 
+Gain 3 level Burning.</t>
   </si>
   <si>
     <t>Curse</t>
   </si>
   <si>
-    <t>The target will receive Fragile every time lost HP.</t>
+    <t>The target will receive Fragile every time lost &lt;sprite="Common" name="HP"&gt; HP.</t>
   </si>
   <si>
     <t>Counter</t>
   </si>
   <si>
-    <t>Deal damage to the unit that attack Bond.</t>
+    <t>Deal damage to the unit that attack Ward.</t>
   </si>
   <si>
     <t>Provoke</t>
@@ -193,49 +199,50 @@
     <t>Take a Nap</t>
   </si>
   <si>
-    <t>Heal one character according to HP.</t>
+    <t>Heal one character equal to &lt;sprite="Common" name="HP"&gt; 25%HP.</t>
   </si>
   <si>
     <t>Fish Drat</t>
   </si>
   <si>
-    <t>Deal damage according to DEF, next strike will recover HP according to damage.</t>
+    <t>Deal damage equal to &lt;sprite="Common" name="DEF"&gt; DEF
+Next strike will restore &lt;sprite="Common" name="HP"&gt; HP according to damage.</t>
   </si>
   <si>
     <t>Rush Hour</t>
   </si>
   <si>
-    <t>Gain 3 Movement.</t>
+    <t>Give 3 &lt;sprite="Common" name="MOV"&gt; MOV.</t>
   </si>
   <si>
     <t>Helper Hand</t>
   </si>
   <si>
-    <t>Enlarge the range of the support skill</t>
+    <t>&lt;sprite="Common" name="Range"&gt; Range + 1 for &lt;sprite="SkillType" name="SSkill"&gt; Support Skill</t>
   </si>
   <si>
     <t>Handover</t>
   </si>
   <si>
-    <t>Gain 1 AP.</t>
+    <t>Give 1 &lt;sprite="Common" name="AP"&gt;.</t>
   </si>
   <si>
     <t>Final Guard</t>
   </si>
   <si>
-    <t>HP won't become 0.</t>
+    <t>&lt;sprite="Common" name="HP"&gt; HP won't become 0.</t>
   </si>
   <si>
     <t>Super Worker</t>
   </si>
   <si>
-    <t>Increase ATK,DEF,RES,max Movement by 1.</t>
+    <t xml:space="preserve">Increase &lt;sprite="Common" name="ATK"&gt; ATK &lt;sprite="Common" name="DEF"&gt; DEF &lt;sprite="Common" name="RES"&gt; RES &lt;sprite="Common" name="MOV"&gt; MOV by 1. </t>
   </si>
   <si>
     <t>Finish Work</t>
   </si>
   <si>
-    <t>Cost HP to deal damage, the damage will be equal to lost HP.</t>
+    <t>Cost &lt;sprite="Common" name="HP"&gt; HP to deal damage, the damage will be equal to cost &lt;sprite="Common" name="HP"&gt; HP.</t>
   </si>
 </sst>
 </file>
@@ -887,7 +894,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -896,9 +903,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1229,13 +1233,17 @@
   <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
   <cols>
     <col min="2" max="2" width="18.0909090909091" customWidth="1"/>
-    <col min="3" max="3" width="87.1818181818182" customWidth="1"/>
+    <col min="3" max="3" width="145.363636363636" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1287,14 +1295,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" ht="28" spans="1:3">
       <c r="A6" s="2">
         <v>1191</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="3" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1305,34 +1313,34 @@
       <c r="B7" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" ht="28" spans="1:3">
       <c r="A8" s="2">
         <v>1193</v>
       </c>
       <c r="B8" t="s">
         <v>14</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" ht="28" spans="1:3">
       <c r="A9" s="2">
         <v>1102</v>
       </c>
       <c r="B9" t="s">
         <v>16</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" ht="42" spans="1:3">
-      <c r="A10" s="5">
+      <c r="A10" s="4">
         <v>1202</v>
       </c>
       <c r="B10" t="s">
@@ -1342,8 +1350,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="5">
+    <row r="11" ht="42" spans="1:3">
+      <c r="A11" s="4">
         <v>1291</v>
       </c>
       <c r="B11" t="s">
@@ -1354,7 +1362,7 @@
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="5">
+      <c r="A12" s="4">
         <v>1201</v>
       </c>
       <c r="B12" t="s">
@@ -1364,30 +1372,30 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="6">
+    <row r="13" ht="28" spans="1:3">
+      <c r="A13" s="5">
         <v>1301</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="6">
+    <row r="14" ht="28" spans="1:3">
+      <c r="A14" s="5">
         <v>1302</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="15" ht="28" spans="1:3">
-      <c r="A15" s="6">
+      <c r="A15" s="5">
         <v>1391</v>
       </c>
       <c r="B15" t="s">
@@ -1397,8 +1405,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" ht="28" spans="1:3">
-      <c r="A16" s="7">
+    <row r="16" ht="42" spans="1:3">
+      <c r="A16" s="6">
         <v>1401</v>
       </c>
       <c r="B16" t="s">
@@ -1408,19 +1416,19 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="7">
+    <row r="17" ht="28" spans="1:3">
+      <c r="A17" s="6">
         <v>1402</v>
       </c>
       <c r="B17" t="s">
         <v>32</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="3" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="7">
+      <c r="A18" s="6">
         <v>1491</v>
       </c>
       <c r="B18" t="s">
@@ -1430,19 +1438,19 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="8">
+    <row r="19" ht="28" spans="1:3">
+      <c r="A19" s="7">
         <v>1901</v>
       </c>
       <c r="B19" t="s">
         <v>36</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="20" ht="28" spans="1:3">
-      <c r="A20" s="8">
+      <c r="A20" s="7">
         <v>1902</v>
       </c>
       <c r="B20" t="s">
@@ -1453,7 +1461,7 @@
       </c>
     </row>
     <row r="21" ht="28" spans="1:3">
-      <c r="A21" s="8">
+      <c r="A21" s="7">
         <v>1903</v>
       </c>
       <c r="B21" t="s">
@@ -1471,7 +1479,7 @@
         <v>42</v>
       </c>
       <c r="C22" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1479,10 +1487,10 @@
         <v>2101</v>
       </c>
       <c r="B23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C23" t="s">
-        <v>45</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1490,142 +1498,142 @@
         <v>2191</v>
       </c>
       <c r="B24" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C24" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" ht="28" spans="1:3">
       <c r="A25" s="2">
         <v>2102</v>
       </c>
       <c r="B25" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="4">
+        <v>2201</v>
+      </c>
+      <c r="B26" t="s">
         <v>48</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C26" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="5">
-        <v>2201</v>
-      </c>
-      <c r="B26" t="s">
+    <row r="27" spans="1:3">
+      <c r="A27" s="4">
+        <v>2291</v>
+      </c>
+      <c r="B27" t="s">
         <v>50</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C27" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="5">
-        <v>2291</v>
-      </c>
-      <c r="B27" t="s">
+    <row r="28" spans="1:3">
+      <c r="A28" s="4">
+        <v>2202</v>
+      </c>
+      <c r="B28" t="s">
         <v>52</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C28" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="5">
-        <v>2202</v>
-      </c>
-      <c r="B28" t="s">
+    <row r="29" spans="1:3">
+      <c r="A29" s="5">
+        <v>2301</v>
+      </c>
+      <c r="B29" t="s">
         <v>54</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C29" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="6">
-        <v>2301</v>
-      </c>
-      <c r="B29" t="s">
+    <row r="30" ht="28" spans="1:3">
+      <c r="A30" s="5">
+        <v>2302</v>
+      </c>
+      <c r="B30" t="s">
         <v>56</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C30" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="6">
-        <v>2302</v>
-      </c>
-      <c r="B30" t="s">
+    <row r="31" spans="1:3">
+      <c r="A31" s="6">
+        <v>2401</v>
+      </c>
+      <c r="B31" t="s">
         <v>58</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C31" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="7">
-        <v>2401</v>
-      </c>
-      <c r="B31" t="s">
+    <row r="32" spans="1:3">
+      <c r="A32" s="6">
+        <v>2491</v>
+      </c>
+      <c r="B32" t="s">
         <v>60</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C32" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="7">
-        <v>2491</v>
-      </c>
-      <c r="B32" t="s">
+    <row r="33" spans="1:3">
+      <c r="A33" s="6">
+        <v>2402</v>
+      </c>
+      <c r="B33" t="s">
         <v>62</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C33" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="7">
-        <v>2402</v>
-      </c>
-      <c r="B33" t="s">
+    <row r="34" spans="1:3">
+      <c r="A34" s="7">
+        <v>2901</v>
+      </c>
+      <c r="B34" t="s">
         <v>64</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C34" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="8">
-        <v>2901</v>
-      </c>
-      <c r="B34" t="s">
+    <row r="35" spans="1:3">
+      <c r="A35" s="7">
+        <v>2902</v>
+      </c>
+      <c r="B35" t="s">
         <v>66</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C35" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="8">
-        <v>2902</v>
-      </c>
-      <c r="B35" t="s">
+    <row r="36" spans="1:3">
+      <c r="A36" s="7">
+        <v>2903</v>
+      </c>
+      <c r="B36" t="s">
         <v>68</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C36" t="s">
         <v>69</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="8">
-        <v>2903</v>
-      </c>
-      <c r="B36" t="s">
-        <v>70</v>
-      </c>
-      <c r="C36" t="s">
-        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/SkillDesc.xlsx
+++ b/Assets/Excel/SkillDesc.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="86">
   <si>
     <t>//Remark</t>
   </si>
@@ -243,6 +243,54 @@
   </si>
   <si>
     <t>Cost &lt;sprite="Common" name="HP"&gt; HP to deal damage, the damage will be equal to cost &lt;sprite="Common" name="HP"&gt; HP.</t>
+  </si>
+  <si>
+    <t>Tadpole Strike</t>
+  </si>
+  <si>
+    <t>Cook Human On Time</t>
+  </si>
+  <si>
+    <t>Unstable Rabbit</t>
+  </si>
+  <si>
+    <t>Random MilkTea</t>
+  </si>
+  <si>
+    <t>Hero Rabbit</t>
+  </si>
+  <si>
+    <t>Void Rabbit</t>
+  </si>
+  <si>
+    <t>Bite</t>
+  </si>
+  <si>
+    <t>Write me!</t>
+  </si>
+  <si>
+    <t>Anxious Nodule</t>
+  </si>
+  <si>
+    <t>Anxious Fire</t>
+  </si>
+  <si>
+    <t>Anxious Water</t>
+  </si>
+  <si>
+    <t>Anxious Gravity</t>
+  </si>
+  <si>
+    <t>Vision</t>
+  </si>
+  <si>
+    <t>Cruelty</t>
+  </si>
+  <si>
+    <t>Emotional Damage</t>
+  </si>
+  <si>
+    <t>Summon Darkness</t>
   </si>
 </sst>
 </file>
@@ -1230,14 +1278,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C30" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C21" sqref="C21"/>
+      <selection pane="bottomRight" activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
@@ -1636,6 +1684,134 @@
         <v>69</v>
       </c>
     </row>
+    <row r="37" spans="1:2">
+      <c r="A37">
+        <v>3001</v>
+      </c>
+      <c r="B37" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="1">
+        <v>3101</v>
+      </c>
+      <c r="B38" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="1">
+        <v>3102</v>
+      </c>
+      <c r="B39" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="1">
+        <v>3103</v>
+      </c>
+      <c r="B40" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41">
+        <v>3201</v>
+      </c>
+      <c r="B41" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42">
+        <v>3301</v>
+      </c>
+      <c r="B42" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43">
+        <v>9001</v>
+      </c>
+      <c r="B43" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44">
+        <v>9002</v>
+      </c>
+      <c r="B44" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45">
+        <v>9101</v>
+      </c>
+      <c r="B45" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46">
+        <v>9102</v>
+      </c>
+      <c r="B46" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47">
+        <v>9103</v>
+      </c>
+      <c r="B47" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48">
+        <v>9104</v>
+      </c>
+      <c r="B48" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49">
+        <v>9201</v>
+      </c>
+      <c r="B49" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50">
+        <v>9202</v>
+      </c>
+      <c r="B50" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51">
+        <v>9301</v>
+      </c>
+      <c r="B51" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52">
+        <v>9901</v>
+      </c>
+      <c r="B52" t="s">
+        <v>85</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Assets/Excel/SkillDesc.xlsx
+++ b/Assets/Excel/SkillDesc.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="108">
   <si>
     <t>//Remark</t>
   </si>
@@ -22,10 +22,16 @@
     <t>id</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>desc</t>
+    <t>name_EN</t>
+  </si>
+  <si>
+    <t>name_CN</t>
+  </si>
+  <si>
+    <t>desc_EN</t>
+  </si>
+  <si>
+    <t>desc_CN</t>
   </si>
   <si>
     <t>int</t>
@@ -34,20 +40,36 @@
     <t>string</t>
   </si>
   <si>
-    <t>Elemental Ball</t>
+    <t>Pluse Wave</t>
+  </si>
+  <si>
+    <t>脉冲波动</t>
   </si>
   <si>
     <t>Deal &lt;sprite="Common" name="ATK"&gt; ATK damage.</t>
   </si>
   <si>
+    <t>造成相当于 &lt;sprite="Common" name="ATK"&gt; 力量 的伤害</t>
+  </si>
+  <si>
     <t>Fire Ball</t>
+  </si>
+  <si>
+    <t>火球术</t>
   </si>
   <si>
     <t>Deal &lt;sprite="Common" name="ATK"&gt; ATK + 3 damage.
 Apply 1 level Burning.</t>
   </si>
   <si>
+    <t>造成相当于 &lt;sprite="Common" name="ATK"&gt; 力量+3 的伤害
+附加1层灼烧</t>
+  </si>
+  <si>
     <t>Quick Cast</t>
+  </si>
+  <si>
+    <t>即刻咏唱</t>
   </si>
   <si>
     <t>&lt;sprite="Common" name="AP"&gt; AP Cost - 1 for &lt;b&gt;Fire Ball&lt;/b&gt;
@@ -57,6 +79,9 @@
     <t>Inferno</t>
   </si>
   <si>
+    <t>炼狱火海</t>
+  </si>
+  <si>
     <t>&lt;sprite="Common" name="Radius"&gt; Radius + 1 for &lt;b&gt;Fire Ball&lt;/b&gt;
 Damage of &lt;b&gt;Fire Ball&lt;/b&gt; reduce 25%.</t>
   </si>
@@ -64,6 +89,9 @@
     <t>Focus</t>
   </si>
   <si>
+    <t>聚焦</t>
+  </si>
+  <si>
     <t>&lt;b&gt;Fire Ball&lt;/b&gt; will cost all &lt;sprite="Common" name="AP"&gt; AP
 Each extra &lt;sprite="Common" name="AP"&gt; AP deal more damage.</t>
   </si>
@@ -71,11 +99,17 @@
     <t>Boom!</t>
   </si>
   <si>
+    <t>爆破术</t>
+  </si>
+  <si>
     <t>Select All Burning Targets.
 Deal damage equal to Burning X 2.5.</t>
   </si>
   <si>
     <t xml:space="preserve">Gravity </t>
+  </si>
+  <si>
+    <t>重力</t>
   </si>
   <si>
     <t>Deal &lt;sprite="Common" name="ATK"&gt; ATK - 1 damage.
@@ -86,6 +120,9 @@
     <t>Genesis</t>
   </si>
   <si>
+    <t>创世</t>
+  </si>
+  <si>
     <t>&lt;b&gt;Gravity&lt;/b&gt; can break &lt;sprite="Tile" name="StoneT"&gt;Stone tile.
 Randomly create special tile like &lt;sprite="Tile" name="MagicT"&gt; &lt;sprite="Tile" name="DuelT"&gt; &lt;sprite="Tile" name="GuardT"&gt; &lt;sprite="Tile" name="StealthT"&gt;</t>
   </si>
@@ -93,17 +130,26 @@
     <t>Chronal Shift</t>
   </si>
   <si>
+    <t>时间变换</t>
+  </si>
+  <si>
     <t>Dodge next attack from &lt;sprite="Target" name="CUnit"&gt; Character,&lt;sprite="Target" name="FUnit"&gt; Foe or &lt;sprite="Target" name="PUnit"&gt; Plant.</t>
   </si>
   <si>
     <t>Fourtain</t>
+  </si>
+  <si>
+    <t>喷流</t>
   </si>
   <si>
     <t>Deal damage to &lt;sprite="Target" name="FUnit"&gt; Foe equal to &lt;sprite="Common" name="RES"&gt; RESX2 + 1.
 Heal &lt;sprite="Target" name="PUnit"&gt; Plant equal to &lt;sprite="Common" name="RES"&gt; RES X2 + 1.</t>
   </si>
   <si>
-    <t>Clean</t>
+    <t>Clear</t>
+  </si>
+  <si>
+    <t>清心术</t>
   </si>
   <si>
     <t>Remove 1 debuff for &lt;sprite="Target" name="CUnit"&gt; Character or &lt;sprite="Target" name="PUnit"&gt; Plant
@@ -113,11 +159,17 @@
     <t>Drown</t>
   </si>
   <si>
+    <t>淹没</t>
+  </si>
+  <si>
     <t>&lt;sprite="Common" name="AP"&gt; AP Cost + 1 for &lt;b&gt;Fourtain&lt;/b&gt;
 &lt;b&gt;Fourtain&lt;/b&gt; will turn &lt;sprite="Tile" name="SoilT"&gt; Soil tile into &lt;sprite="Tile" name="WaterT"&gt; Water tile.</t>
   </si>
   <si>
-    <t>Lightning Bolt</t>
+    <t>Lightning</t>
+  </si>
+  <si>
+    <t>闪电术</t>
   </si>
   <si>
     <t>Deal &lt;sprite="Common" name="ATK"&gt; ATK + 4 damage.
@@ -128,6 +180,9 @@
     <t>Teleport</t>
   </si>
   <si>
+    <t>时空之门</t>
+  </si>
+  <si>
     <t>Change position of &lt;sprite="Target" name="CUnit"&gt; Character or &lt;sprite="Target" name="PUnit"&gt; Plant.
 Distance of &lt;b&gt;Teleport&lt;/b&gt; will determined by &lt;sprite="Common" name="MOV"&gt; MOV.</t>
   </si>
@@ -135,10 +190,16 @@
     <t>High Voltage</t>
   </si>
   <si>
+    <t>高压电</t>
+  </si>
+  <si>
     <t>The damage decay of &lt;b&gt;Lightning Bolt&lt;/b&gt; will be reduced.</t>
   </si>
   <si>
     <t>Time Expand</t>
+  </si>
+  <si>
+    <t>时间膨胀</t>
   </si>
   <si>
     <t>Double the level of all debuff for &lt;sprite="Target" name="FUnit"&gt; Foe
@@ -148,11 +209,17 @@
     <t>Infinity</t>
   </si>
   <si>
+    <t>无限！</t>
+  </si>
+  <si>
     <t>Gain 3 Infinity.
 Infinity can enlarge next X skills' &lt;sprite="Common" name="Radius"&gt; Radius by 1.</t>
   </si>
   <si>
     <t>Rabbit Chant</t>
+  </si>
+  <si>
+    <t>兔兔吟唱</t>
   </si>
   <si>
     <t>&lt;sprite="Common" name="Range"&gt; Range + 2 and &lt;sprite="Common" name="AP"&gt; AP + 1
@@ -1278,20 +1345,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C52"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C30" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C43" sqref="C43"/>
+      <selection pane="bottomRight" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
   <cols>
     <col min="2" max="2" width="18.0909090909091" customWidth="1"/>
-    <col min="3" max="3" width="145.363636363636" customWidth="1"/>
+    <col min="3" max="3" width="11.7272727272727" customWidth="1"/>
+    <col min="4" max="4" width="145.363636363636" customWidth="1"/>
+    <col min="5" max="5" width="36.2727272727273" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1299,7 +1368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1309,379 +1378,451 @@
       <c r="C2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1">
         <v>1001</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" ht="28" spans="1:3">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" ht="42" spans="1:5">
       <c r="A5" s="2">
         <v>1101</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" ht="28" spans="1:3">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" ht="28" spans="1:4">
       <c r="A6" s="2">
         <v>1191</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" ht="28" spans="1:3">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" ht="28" spans="1:4">
       <c r="A7" s="2">
         <v>1192</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" ht="28" spans="1:3">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" ht="28" spans="1:4">
       <c r="A8" s="2">
         <v>1193</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" ht="28" spans="1:3">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" ht="28" spans="1:4">
       <c r="A9" s="2">
         <v>1102</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" ht="42" spans="1:3">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" ht="42" spans="1:4">
       <c r="A10" s="4">
         <v>1202</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" ht="42" spans="1:3">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" ht="42" spans="1:4">
       <c r="A11" s="4">
         <v>1291</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>31</v>
+      </c>
+      <c r="C11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="4">
         <v>1201</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" ht="28" spans="1:3">
+        <v>35</v>
+      </c>
+      <c r="D12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" ht="28" spans="1:4">
       <c r="A13" s="5">
         <v>1301</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" ht="28" spans="1:3">
+        <v>37</v>
+      </c>
+      <c r="C13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" ht="28" spans="1:4">
       <c r="A14" s="5">
         <v>1302</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" ht="28" spans="1:3">
+        <v>40</v>
+      </c>
+      <c r="C14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" ht="28" spans="1:4">
       <c r="A15" s="5">
         <v>1391</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" ht="42" spans="1:3">
+        <v>43</v>
+      </c>
+      <c r="C15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" ht="42" spans="1:4">
       <c r="A16" s="6">
         <v>1401</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" ht="28" spans="1:3">
+        <v>46</v>
+      </c>
+      <c r="C16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" ht="28" spans="1:4">
       <c r="A17" s="6">
         <v>1402</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>49</v>
+      </c>
+      <c r="C17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="6">
         <v>1491</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="C18" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" ht="28" spans="1:3">
+        <v>53</v>
+      </c>
+      <c r="D18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" ht="28" spans="1:4">
       <c r="A19" s="7">
         <v>1901</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" ht="28" spans="1:3">
+        <v>55</v>
+      </c>
+      <c r="C19" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" ht="28" spans="1:4">
       <c r="A20" s="7">
         <v>1902</v>
       </c>
       <c r="B20" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" ht="28" spans="1:3">
+        <v>58</v>
+      </c>
+      <c r="C20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" ht="28" spans="1:4">
       <c r="A21" s="7">
         <v>1903</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>61</v>
+      </c>
+      <c r="C21" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1">
         <v>2001</v>
       </c>
       <c r="B22" t="s">
-        <v>42</v>
-      </c>
-      <c r="C22" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>64</v>
+      </c>
+      <c r="D22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="2">
         <v>2101</v>
       </c>
       <c r="B23" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>65</v>
+      </c>
+      <c r="D23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="2">
         <v>2191</v>
       </c>
       <c r="B24" t="s">
-        <v>44</v>
-      </c>
-      <c r="C24" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" ht="28" spans="1:3">
+        <v>66</v>
+      </c>
+      <c r="D24" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" ht="28" spans="1:4">
       <c r="A25" s="2">
         <v>2102</v>
       </c>
       <c r="B25" t="s">
-        <v>46</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>68</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="4">
         <v>2201</v>
       </c>
       <c r="B26" t="s">
-        <v>48</v>
-      </c>
-      <c r="C26" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>70</v>
+      </c>
+      <c r="D26" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="4">
         <v>2291</v>
       </c>
       <c r="B27" t="s">
-        <v>50</v>
-      </c>
-      <c r="C27" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+        <v>72</v>
+      </c>
+      <c r="D27" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="4">
         <v>2202</v>
       </c>
       <c r="B28" t="s">
-        <v>52</v>
-      </c>
-      <c r="C28" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>74</v>
+      </c>
+      <c r="D28" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="5">
         <v>2301</v>
       </c>
       <c r="B29" t="s">
-        <v>54</v>
-      </c>
-      <c r="C29" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="30" ht="28" spans="1:3">
+        <v>76</v>
+      </c>
+      <c r="D29" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="30" ht="28" spans="1:4">
       <c r="A30" s="5">
         <v>2302</v>
       </c>
       <c r="B30" t="s">
-        <v>56</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>78</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="6">
         <v>2401</v>
       </c>
       <c r="B31" t="s">
-        <v>58</v>
-      </c>
-      <c r="C31" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>80</v>
+      </c>
+      <c r="D31" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="6">
         <v>2491</v>
       </c>
       <c r="B32" t="s">
-        <v>60</v>
-      </c>
-      <c r="C32" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>82</v>
+      </c>
+      <c r="D32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="6">
         <v>2402</v>
       </c>
       <c r="B33" t="s">
-        <v>62</v>
-      </c>
-      <c r="C33" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>84</v>
+      </c>
+      <c r="D33" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="7">
         <v>2901</v>
       </c>
       <c r="B34" t="s">
-        <v>64</v>
-      </c>
-      <c r="C34" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>86</v>
+      </c>
+      <c r="D34" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="7">
         <v>2902</v>
       </c>
       <c r="B35" t="s">
-        <v>66</v>
-      </c>
-      <c r="C35" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>88</v>
+      </c>
+      <c r="D35" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="7">
         <v>2903</v>
       </c>
       <c r="B36" t="s">
-        <v>68</v>
-      </c>
-      <c r="C36" t="s">
-        <v>69</v>
+        <v>90</v>
+      </c>
+      <c r="D36" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1689,7 +1830,7 @@
         <v>3001</v>
       </c>
       <c r="B37" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1697,7 +1838,7 @@
         <v>3101</v>
       </c>
       <c r="B38" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1705,7 +1846,7 @@
         <v>3102</v>
       </c>
       <c r="B39" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1713,7 +1854,7 @@
         <v>3103</v>
       </c>
       <c r="B40" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1721,7 +1862,7 @@
         <v>3201</v>
       </c>
       <c r="B41" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1729,7 +1870,7 @@
         <v>3301</v>
       </c>
       <c r="B42" t="s">
-        <v>75</v>
+        <v>97</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1737,7 +1878,7 @@
         <v>9001</v>
       </c>
       <c r="B43" t="s">
-        <v>76</v>
+        <v>98</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1745,7 +1886,7 @@
         <v>9002</v>
       </c>
       <c r="B44" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1753,7 +1894,7 @@
         <v>9101</v>
       </c>
       <c r="B45" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1761,7 +1902,7 @@
         <v>9102</v>
       </c>
       <c r="B46" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1769,7 +1910,7 @@
         <v>9103</v>
       </c>
       <c r="B47" t="s">
-        <v>80</v>
+        <v>102</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1777,7 +1918,7 @@
         <v>9104</v>
       </c>
       <c r="B48" t="s">
-        <v>81</v>
+        <v>103</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1785,7 +1926,7 @@
         <v>9201</v>
       </c>
       <c r="B49" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1793,7 +1934,7 @@
         <v>9202</v>
       </c>
       <c r="B50" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1801,7 +1942,7 @@
         <v>9301</v>
       </c>
       <c r="B51" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1809,7 +1950,7 @@
         <v>9901</v>
       </c>
       <c r="B52" t="s">
-        <v>85</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/SkillDesc.xlsx
+++ b/Assets/Excel/SkillDesc.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="116">
   <si>
     <t>//Remark</t>
   </si>
@@ -34,12 +34,18 @@
     <t>desc_CN</t>
   </si>
   <si>
+    <t>listTagType</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
     <t>string</t>
   </si>
   <si>
+    <t>string[]</t>
+  </si>
+  <si>
     <t>Pluse Wave</t>
   </si>
   <si>
@@ -50,6 +56,9 @@
   </si>
   <si>
     <t>造成相当于 &lt;sprite="Common" name="ATK"&gt; 力量 的伤害</t>
+  </si>
+  <si>
+    <t>MDmg</t>
   </si>
   <si>
     <t>Fire Ball</t>
@@ -66,6 +75,9 @@
 附加1层灼烧</t>
   </si>
   <si>
+    <t>MDmg;HurtAll</t>
+  </si>
+  <si>
     <t>Quick Cast</t>
   </si>
   <si>
@@ -104,6 +116,9 @@
   <si>
     <t>Select All Burning Targets.
 Deal damage equal to Burning X 2.5.</t>
+  </si>
+  <si>
+    <t>TDmg;HurtAll</t>
   </si>
   <si>
     <t xml:space="preserve">Gravity </t>
@@ -177,6 +192,9 @@
 But damage will reduce according to distance.</t>
   </si>
   <si>
+    <t>MDmg;HurtCharacter</t>
+  </si>
+  <si>
     <t>Teleport</t>
   </si>
   <si>
@@ -229,6 +247,9 @@
     <t>Strike</t>
   </si>
   <si>
+    <t>PDmg</t>
+  </si>
+  <si>
     <t>Worker Wind</t>
   </si>
   <si>
@@ -266,7 +287,7 @@
     <t>Take a Nap</t>
   </si>
   <si>
-    <t>Heal one character equal to &lt;sprite="Common" name="HP"&gt; 25%HP.</t>
+    <t>Heal &lt;sprite="Target" name="CUnit"&gt; Character equal to &lt;sprite="Common" name="HP"&gt; 25%HP.</t>
   </si>
   <si>
     <t>Fish Drat</t>
@@ -274,6 +295,9 @@
   <si>
     <t>Deal damage equal to &lt;sprite="Common" name="DEF"&gt; DEF
 Next strike will restore &lt;sprite="Common" name="HP"&gt; HP according to damage.</t>
+  </si>
+  <si>
+    <t>TDmg</t>
   </si>
   <si>
     <t>Rush Hour</t>
@@ -1345,22 +1369,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D26" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E5" sqref="E5"/>
+      <selection pane="bottomRight" activeCell="F51" sqref="F40:F51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
   <cols>
     <col min="2" max="2" width="18.0909090909091" customWidth="1"/>
     <col min="3" max="3" width="11.7272727272727" customWidth="1"/>
     <col min="4" max="4" width="145.363636363636" customWidth="1"/>
-    <col min="5" max="5" width="36.2727272727273" customWidth="1"/>
+    <col min="5" max="5" width="40.6363636363636" customWidth="1"/>
+    <col min="6" max="6" width="19.0909090909091" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1368,7 +1393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1384,573 +1409,726 @@
       <c r="E2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>1001</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" ht="42" spans="1:5">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" ht="42" spans="1:6">
       <c r="A5" s="2">
         <v>1101</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" ht="28" spans="1:4">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" ht="28" spans="1:6">
       <c r="A6" s="2">
         <v>1191</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" ht="28" spans="1:4">
+        <v>22</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" ht="28" spans="1:6">
       <c r="A7" s="2">
         <v>1192</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" ht="28" spans="1:4">
+        <v>25</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" ht="28" spans="1:6">
       <c r="A8" s="2">
         <v>1193</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" ht="28" spans="1:4">
+        <v>28</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" ht="28" spans="1:6">
       <c r="A9" s="2">
         <v>1102</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" ht="42" spans="1:4">
+        <v>31</v>
+      </c>
+      <c r="F9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" ht="42" spans="1:6">
       <c r="A10" s="4">
         <v>1202</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" ht="42" spans="1:4">
+        <v>35</v>
+      </c>
+      <c r="F10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" ht="42" spans="1:6">
       <c r="A11" s="4">
         <v>1291</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>38</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="4">
         <v>1201</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" ht="28" spans="1:4">
+        <v>41</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" ht="28" spans="1:6">
       <c r="A13" s="5">
         <v>1301</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" ht="28" spans="1:4">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" ht="28" spans="1:6">
       <c r="A14" s="5">
         <v>1302</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C14" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" ht="28" spans="1:4">
+        <v>47</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" ht="28" spans="1:6">
       <c r="A15" s="5">
         <v>1391</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C15" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" ht="42" spans="1:4">
+        <v>50</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" ht="42" spans="1:6">
       <c r="A16" s="6">
         <v>1401</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C16" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" ht="28" spans="1:4">
+        <v>53</v>
+      </c>
+      <c r="F16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" ht="28" spans="1:6">
       <c r="A17" s="6">
         <v>1402</v>
       </c>
       <c r="B17" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C17" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>57</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="6">
         <v>1491</v>
       </c>
       <c r="B18" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C18" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D18" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="19" ht="28" spans="1:4">
+        <v>60</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" ht="28" spans="1:6">
       <c r="A19" s="7">
         <v>1901</v>
       </c>
       <c r="B19" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C19" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20" ht="28" spans="1:4">
+        <v>63</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" ht="28" spans="1:6">
       <c r="A20" s="7">
         <v>1902</v>
       </c>
       <c r="B20" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C20" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="21" ht="28" spans="1:4">
+        <v>66</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" ht="28" spans="1:6">
       <c r="A21" s="7">
         <v>1903</v>
       </c>
       <c r="B21" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C21" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>69</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1">
         <v>2001</v>
       </c>
       <c r="B22" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>12</v>
+      </c>
+      <c r="F22" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="2">
         <v>2101</v>
       </c>
       <c r="B23" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>12</v>
+      </c>
+      <c r="F23" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="2">
         <v>2191</v>
       </c>
       <c r="B24" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="D24" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="25" ht="28" spans="1:4">
+        <v>74</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" ht="28" spans="1:6">
       <c r="A25" s="2">
         <v>2102</v>
       </c>
       <c r="B25" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>76</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="4">
         <v>2201</v>
       </c>
       <c r="B26" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="D26" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>78</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="4">
         <v>2291</v>
       </c>
       <c r="B27" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D27" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+        <v>80</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="4">
         <v>2202</v>
       </c>
       <c r="B28" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="D28" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>82</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="5">
         <v>2301</v>
       </c>
       <c r="B29" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="D29" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="30" ht="28" spans="1:4">
+        <v>84</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" ht="28" spans="1:6">
       <c r="A30" s="5">
         <v>2302</v>
       </c>
       <c r="B30" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>86</v>
+      </c>
+      <c r="F30" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="6">
         <v>2401</v>
       </c>
       <c r="B31" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="D31" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>89</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="6">
         <v>2491</v>
       </c>
       <c r="B32" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="D32" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>91</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="6">
         <v>2402</v>
       </c>
       <c r="B33" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="D33" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>93</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="7">
         <v>2901</v>
       </c>
       <c r="B34" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="D34" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>95</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="7">
         <v>2902</v>
       </c>
       <c r="B35" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D35" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>97</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="7">
         <v>2903</v>
       </c>
       <c r="B36" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="D36" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>99</v>
+      </c>
+      <c r="F36" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37">
         <v>3001</v>
       </c>
       <c r="B37" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
+        <v>100</v>
+      </c>
+      <c r="F37" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1">
         <v>3101</v>
       </c>
       <c r="B38" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>101</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1">
         <v>3102</v>
       </c>
       <c r="B39" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>102</v>
+      </c>
+      <c r="F39" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1">
         <v>3103</v>
       </c>
       <c r="B40" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>103</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41">
         <v>3201</v>
       </c>
       <c r="B41" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>104</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42">
         <v>3301</v>
       </c>
       <c r="B42" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
+        <v>105</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43">
         <v>9001</v>
       </c>
       <c r="B43" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>106</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44">
         <v>9002</v>
       </c>
       <c r="B44" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>107</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45">
         <v>9101</v>
       </c>
       <c r="B45" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
+        <v>108</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46">
         <v>9102</v>
       </c>
       <c r="B46" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>109</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47">
         <v>9103</v>
       </c>
       <c r="B47" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>110</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48">
         <v>9104</v>
       </c>
       <c r="B48" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>111</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49">
         <v>9201</v>
       </c>
       <c r="B49" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>112</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50">
         <v>9202</v>
       </c>
       <c r="B50" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>113</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51">
         <v>9301</v>
       </c>
       <c r="B51" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>114</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52">
         <v>9901</v>
       </c>
       <c r="B52" t="s">
-        <v>107</v>
+        <v>115</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/SkillDesc.xlsx
+++ b/Assets/Excel/SkillDesc.xlsx
@@ -9,7 +9,20 @@
   <sheets>
     <sheet name="SkillDesc" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -139,7 +152,7 @@
   </si>
   <si>
     <t>&lt;b&gt;Gravity&lt;/b&gt; can break &lt;sprite="Tile" name="StoneT"&gt;Stone tile.
-Randomly create special tile like &lt;sprite="Tile" name="MagicT"&gt; &lt;sprite="Tile" name="DuelT"&gt; &lt;sprite="Tile" name="GuardT"&gt; &lt;sprite="Tile" name="StealthT"&gt;</t>
+Randomly create special tile like &lt;sprite="Tile" name="MagicT"&gt; &lt;sprite="Tile" name="DuelT"&gt; &lt;sprite="Tile" name="GuardT"&gt; &lt;sprite="Tile" name="StealthT"&gt; &lt;sprite="Tile" name="HopeT"&gt;</t>
   </si>
   <si>
     <t>Chronal Shift</t>
@@ -387,7 +400,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -1372,11 +1385,11 @@
   <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F51" sqref="F40:F51"/>
+      <selection pane="bottomRight" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>

--- a/Assets/Excel/SkillDesc.xlsx
+++ b/Assets/Excel/SkillDesc.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="120">
   <si>
     <t>//Remark</t>
   </si>
@@ -50,6 +50,9 @@
     <t>listTagType</t>
   </si>
   <si>
+    <t>listBuffType</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -57,6 +60,9 @@
   </si>
   <si>
     <t>string[]</t>
+  </si>
+  <si>
+    <t>int[]</t>
   </si>
   <si>
     <t>Pluse Wave</t>
@@ -234,7 +240,8 @@
   </si>
   <si>
     <t>Double the level of all debuff for &lt;sprite="Target" name="FUnit"&gt; Foe
-buff for &lt;sprite="Target" name="CUnit"&gt; Character or &lt;sprite="Target" name="PUnit"&gt; Plant</t>
+buff for &lt;sprite="Target" name="CUnit"&gt; Character or &lt;sprite="Target" name="PUnit"&gt; Plant
+Except the buff from &lt;sprite="SkillType" name="USkill"&gt; Ultimate Skill</t>
   </si>
   <si>
     <t>Infinity</t>
@@ -279,10 +286,16 @@
 Gain 3 level Burning.</t>
   </si>
   <si>
+    <t>1002;4001</t>
+  </si>
+  <si>
     <t>Curse</t>
   </si>
   <si>
     <t>The target will receive Fragile every time lost &lt;sprite="Common" name="HP"&gt; HP.</t>
+  </si>
+  <si>
+    <t>2001;4002</t>
   </si>
   <si>
     <t>Counter</t>
@@ -1382,23 +1395,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F52"/>
+  <dimension ref="A1:G52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D16" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomRight" activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
   <cols>
     <col min="2" max="2" width="18.0909090909091" customWidth="1"/>
     <col min="3" max="3" width="11.7272727272727" customWidth="1"/>
     <col min="4" max="4" width="145.363636363636" customWidth="1"/>
     <col min="5" max="5" width="40.6363636363636" customWidth="1"/>
     <col min="6" max="6" width="19.0909090909091" customWidth="1"/>
+    <col min="7" max="7" width="13.2727272727273" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1406,7 +1420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1425,722 +1439,875 @@
       <c r="F2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>10</v>
+      </c>
+      <c r="G3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>1001</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" ht="42" spans="1:6">
+        <v>16</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" ht="42" spans="1:7">
       <c r="A5" s="2">
         <v>1101</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" ht="28" spans="1:6">
+        <v>21</v>
+      </c>
+      <c r="G5">
+        <v>4001</v>
+      </c>
+    </row>
+    <row r="6" ht="28" spans="1:7">
       <c r="A6" s="2">
         <v>1191</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" ht="28" spans="1:6">
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" ht="28" spans="1:7">
       <c r="A7" s="2">
         <v>1192</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" ht="28" spans="1:6">
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" ht="28" spans="1:7">
       <c r="A8" s="2">
         <v>1193</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" ht="28" spans="1:6">
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" ht="28" spans="1:7">
       <c r="A9" s="2">
         <v>1102</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" ht="42" spans="1:6">
+        <v>34</v>
+      </c>
+      <c r="G9">
+        <v>4001</v>
+      </c>
+    </row>
+    <row r="10" ht="42" spans="1:7">
       <c r="A10" s="4">
         <v>1202</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" ht="42" spans="1:6">
+        <v>16</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" ht="42" spans="1:7">
       <c r="A11" s="4">
         <v>1291</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="G11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="4">
         <v>1201</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C12" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D12" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" ht="28" spans="1:6">
+      <c r="G12">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="13" ht="28" spans="1:7">
       <c r="A13" s="5">
         <v>1301</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C13" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" ht="28" spans="1:6">
+        <v>16</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" ht="28" spans="1:7">
       <c r="A14" s="5">
         <v>1302</v>
       </c>
       <c r="B14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C14" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" ht="28" spans="1:6">
+      <c r="G14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" ht="28" spans="1:7">
       <c r="A15" s="5">
         <v>1391</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C15" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" ht="42" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" ht="42" spans="1:7">
       <c r="A16" s="6">
         <v>1401</v>
       </c>
       <c r="B16" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C16" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F16" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="17" ht="28" spans="1:6">
+        <v>56</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" ht="28" spans="1:7">
       <c r="A17" s="6">
         <v>1402</v>
       </c>
       <c r="B17" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C17" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="6">
         <v>1491</v>
       </c>
       <c r="B18" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C18" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D18" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" ht="28" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" ht="42" spans="1:7">
       <c r="A19" s="7">
         <v>1901</v>
       </c>
       <c r="B19" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C19" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" ht="28" spans="1:6">
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" ht="28" spans="1:7">
       <c r="A20" s="7">
         <v>1902</v>
       </c>
       <c r="B20" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C20" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" ht="28" spans="1:6">
+      <c r="G20">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="21" ht="28" spans="1:7">
       <c r="A21" s="7">
         <v>1903</v>
       </c>
       <c r="B21" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C21" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="G21">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1">
         <v>2001</v>
       </c>
       <c r="B22" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D22" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F22" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>73</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="2">
         <v>2101</v>
       </c>
       <c r="B23" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D23" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F23" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>73</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="2">
         <v>2191</v>
       </c>
       <c r="B24" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D24" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" ht="28" spans="1:6">
+      <c r="G24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" ht="28" spans="1:7">
       <c r="A25" s="2">
         <v>2102</v>
       </c>
       <c r="B25" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:6">
+      <c r="G25" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="4">
         <v>2201</v>
       </c>
       <c r="B26" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D26" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:6">
+      <c r="G26" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="4">
         <v>2291</v>
       </c>
       <c r="B27" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D27" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="4">
         <v>2202</v>
       </c>
       <c r="B28" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D28" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:6">
+      <c r="G28">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="5">
         <v>2301</v>
       </c>
       <c r="B29" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D29" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="F29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" ht="28" spans="1:6">
+      <c r="G29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" ht="28" spans="1:7">
       <c r="A30" s="5">
         <v>2302</v>
       </c>
       <c r="B30" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="F30" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>91</v>
+      </c>
+      <c r="G30">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="6">
         <v>2401</v>
       </c>
       <c r="B31" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D31" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="F31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:6">
+      <c r="G31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="6">
         <v>2491</v>
       </c>
       <c r="B32" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D32" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="F32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:6">
+      <c r="G32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="6">
         <v>2402</v>
       </c>
       <c r="B33" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D33" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="F33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:6">
+      <c r="G33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="7">
         <v>2901</v>
       </c>
       <c r="B34" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D34" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:6">
+      <c r="G34">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="7">
         <v>2902</v>
       </c>
       <c r="B35" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D35" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="7">
         <v>2903</v>
       </c>
       <c r="B36" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D36" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="F36" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>73</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37">
         <v>3001</v>
       </c>
       <c r="B37" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F37" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
+        <v>91</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1">
         <v>3101</v>
       </c>
       <c r="B38" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="F38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:6">
+      <c r="G38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1">
         <v>3102</v>
       </c>
       <c r="B39" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="F39" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>16</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1">
         <v>3103</v>
       </c>
       <c r="B40" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="F40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:6">
+      <c r="G40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41">
         <v>3201</v>
       </c>
       <c r="B41" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:6">
+      <c r="G41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42">
         <v>3301</v>
       </c>
       <c r="B42" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="F42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:6">
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43">
         <v>9001</v>
       </c>
       <c r="B43" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="F43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:6">
+      <c r="G43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44">
         <v>9002</v>
       </c>
       <c r="B44" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="F44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:6">
+      <c r="G44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45">
         <v>9101</v>
       </c>
       <c r="B45" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46">
         <v>9102</v>
       </c>
       <c r="B46" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="F46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:6">
+      <c r="G46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47">
         <v>9103</v>
       </c>
       <c r="B47" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="F47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:6">
+      <c r="G47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48">
         <v>9104</v>
       </c>
       <c r="B48" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="F48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:6">
+      <c r="G48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49">
         <v>9201</v>
       </c>
       <c r="B49" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50">
         <v>9202</v>
       </c>
       <c r="B50" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="F50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:6">
+      <c r="G50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51">
         <v>9301</v>
       </c>
       <c r="B51" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="F51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:6">
+      <c r="G51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52">
         <v>9901</v>
       </c>
       <c r="B52" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Excel/SkillDesc.xlsx
+++ b/Assets/Excel/SkillDesc.xlsx
@@ -87,7 +87,7 @@
   </si>
   <si>
     <t>Deal &lt;sprite="Common" name="ATK"&gt; ATK + 3 damage.
-Apply 1 level Burning.</t>
+Apply 1 Burning.</t>
   </si>
   <si>
     <t>造成相当于 &lt;sprite="Common" name="ATK"&gt; 力量+3 的伤害
@@ -250,8 +250,7 @@
     <t>无限！</t>
   </si>
   <si>
-    <t>Gain 3 Infinity.
-Infinity can enlarge next X skills' &lt;sprite="Common" name="Radius"&gt; Radius by 1.</t>
+    <t>Gain 3 Infinity.</t>
   </si>
   <si>
     <t>Rabbit Chant</t>
@@ -260,8 +259,7 @@
     <t>兔兔吟唱</t>
   </si>
   <si>
-    <t>&lt;sprite="Common" name="Range"&gt; Range + 2 and &lt;sprite="Common" name="AP"&gt; AP + 1
-Can't regain &lt;sprite="Common" name="MOV"&gt; MOV when turn starts.</t>
+    <t>Cost &lt;sprite="Common" name="MOV"&gt; MOV to gain 3 Chanting.</t>
   </si>
   <si>
     <t>Strike</t>
@@ -282,8 +280,8 @@
     <t>Overtime Work</t>
   </si>
   <si>
-    <t>Gain extra &lt;sprite="Common" name="AP"&gt; AP every turn 
-Gain 3 level Burning.</t>
+    <t>Cost &lt;sprite="Common" name="MOV"&gt; MOV to gain 3 Overtime Work. 
+Gain 3 Burning.</t>
   </si>
   <si>
     <t>1002;4001</t>
@@ -292,7 +290,7 @@
     <t>Curse</t>
   </si>
   <si>
-    <t>The target will receive Fragile every time lost &lt;sprite="Common" name="HP"&gt; HP.</t>
+    <t>Apply 2 Curse and 1 Fragile.</t>
   </si>
   <si>
     <t>2001;4002</t>
@@ -341,7 +339,7 @@
     <t>Handover</t>
   </si>
   <si>
-    <t>Give 1 &lt;sprite="Common" name="AP"&gt;.</t>
+    <t>Give 1 &lt;sprite="Common" name="AP"&gt; AP.</t>
   </si>
   <si>
     <t>Final Guard</t>
@@ -1398,11 +1396,11 @@
   <dimension ref="A1:G52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D16" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D15" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G35" sqref="G35"/>
+      <selection pane="bottomRight" activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
@@ -1792,7 +1790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" ht="28" spans="1:7">
+    <row r="20" spans="1:7">
       <c r="A20" s="7">
         <v>1902</v>
       </c>
@@ -1812,7 +1810,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="21" ht="28" spans="1:7">
+    <row r="21" spans="1:7">
       <c r="A21" s="7">
         <v>1903</v>
       </c>

--- a/Assets/Excel/SkillDesc.xlsx
+++ b/Assets/Excel/SkillDesc.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="135">
   <si>
     <t>//Remark</t>
   </si>
@@ -256,7 +256,7 @@
     <t>Rabbit Chant</t>
   </si>
   <si>
-    <t>兔兔吟唱</t>
+    <t>终焉吟唱</t>
   </si>
   <si>
     <t>Cost &lt;sprite="Common" name="MOV"&gt; MOV to gain 3 Chanting.</t>
@@ -265,19 +265,31 @@
     <t>Strike</t>
   </si>
   <si>
+    <t>公文包打击</t>
+  </si>
+  <si>
     <t>PDmg</t>
   </si>
   <si>
     <t>Worker Wind</t>
   </si>
   <si>
+    <t>勤劳新风</t>
+  </si>
+  <si>
     <t>Injury Benefit</t>
   </si>
   <si>
+    <t>工伤赔付</t>
+  </si>
+  <si>
     <t>Deal 1 more damage when lost 3 &lt;sprite="Common" name="HP"&gt; HP.</t>
   </si>
   <si>
     <t>Overtime Work</t>
+  </si>
+  <si>
+    <t>加班时刻</t>
   </si>
   <si>
     <t>Cost &lt;sprite="Common" name="MOV"&gt; MOV to gain 3 Overtime Work. 
@@ -287,16 +299,22 @@
     <t>1002;4001</t>
   </si>
   <si>
-    <t>Curse</t>
-  </si>
-  <si>
-    <t>Apply 2 Curse and 1 Fragile.</t>
+    <t>Bully</t>
+  </si>
+  <si>
+    <t>职场霸凌</t>
+  </si>
+  <si>
+    <t>Apply 2 Fear and 1 Fragile.</t>
   </si>
   <si>
     <t>2001;4002</t>
   </si>
   <si>
-    <t>Counter</t>
+    <t>Your fault!</t>
+  </si>
+  <si>
+    <t>甩锅</t>
   </si>
   <si>
     <t>Deal damage to the unit that attack Ward.</t>
@@ -305,16 +323,25 @@
     <t>Provoke</t>
   </si>
   <si>
+    <t>恶毒嘲笑</t>
+  </si>
+  <si>
     <t>Attract enemies' attack.</t>
   </si>
   <si>
     <t>Take a Nap</t>
   </si>
   <si>
+    <t>三点饮茶</t>
+  </si>
+  <si>
     <t>Heal &lt;sprite="Target" name="CUnit"&gt; Character equal to &lt;sprite="Common" name="HP"&gt; 25%HP.</t>
   </si>
   <si>
     <t>Fish Drat</t>
+  </si>
+  <si>
+    <t>给我摸鱼</t>
   </si>
   <si>
     <t>Deal damage equal to &lt;sprite="Common" name="DEF"&gt; DEF
@@ -327,10 +354,16 @@
     <t>Rush Hour</t>
   </si>
   <si>
+    <t>下班打卡</t>
+  </si>
+  <si>
     <t>Give 3 &lt;sprite="Common" name="MOV"&gt; MOV.</t>
   </si>
   <si>
-    <t>Helper Hand</t>
+    <t>Help from seniors</t>
+  </si>
+  <si>
+    <t>以老带新</t>
   </si>
   <si>
     <t>&lt;sprite="Common" name="Range"&gt; Range + 1 for &lt;sprite="SkillType" name="SSkill"&gt; Support Skill</t>
@@ -339,10 +372,16 @@
     <t>Handover</t>
   </si>
   <si>
+    <t>工作交接</t>
+  </si>
+  <si>
     <t>Give 1 &lt;sprite="Common" name="AP"&gt; AP.</t>
   </si>
   <si>
-    <t>Final Guard</t>
+    <t>Deadline</t>
+  </si>
+  <si>
+    <t>截止日期</t>
   </si>
   <si>
     <t>&lt;sprite="Common" name="HP"&gt; HP won't become 0.</t>
@@ -351,10 +390,16 @@
     <t>Super Worker</t>
   </si>
   <si>
+    <t>超级打工人</t>
+  </si>
+  <si>
     <t xml:space="preserve">Increase &lt;sprite="Common" name="ATK"&gt; ATK &lt;sprite="Common" name="DEF"&gt; DEF &lt;sprite="Common" name="RES"&gt; RES &lt;sprite="Common" name="MOV"&gt; MOV by 1. </t>
   </si>
   <si>
     <t>Finish Work</t>
+  </si>
+  <si>
+    <t>完成工作！</t>
   </si>
   <si>
     <t>Cost &lt;sprite="Common" name="HP"&gt; HP to deal damage, the damage will be equal to cost &lt;sprite="Common" name="HP"&gt; HP.</t>
@@ -1396,16 +1441,16 @@
   <dimension ref="A1:G52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D20" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D33" sqref="D33"/>
+      <selection pane="bottomRight" activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
   <cols>
-    <col min="2" max="2" width="18.0909090909091" customWidth="1"/>
+    <col min="2" max="2" width="19.6363636363636" customWidth="1"/>
     <col min="3" max="3" width="11.7272727272727" customWidth="1"/>
     <col min="4" max="4" width="145.363636363636" customWidth="1"/>
     <col min="5" max="5" width="40.6363636363636" customWidth="1"/>
@@ -1837,11 +1882,14 @@
       <c r="B22" t="s">
         <v>72</v>
       </c>
+      <c r="C22" t="s">
+        <v>73</v>
+      </c>
       <c r="D22" t="s">
         <v>14</v>
       </c>
       <c r="F22" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1852,13 +1900,16 @@
         <v>2101</v>
       </c>
       <c r="B23" t="s">
-        <v>74</v>
+        <v>75</v>
+      </c>
+      <c r="C23" t="s">
+        <v>76</v>
       </c>
       <c r="D23" t="s">
         <v>14</v>
       </c>
       <c r="F23" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1869,10 +1920,13 @@
         <v>2191</v>
       </c>
       <c r="B24" t="s">
-        <v>75</v>
+        <v>77</v>
+      </c>
+      <c r="C24" t="s">
+        <v>78</v>
       </c>
       <c r="D24" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -1886,16 +1940,19 @@
         <v>2102</v>
       </c>
       <c r="B25" t="s">
-        <v>77</v>
+        <v>80</v>
+      </c>
+      <c r="C25" t="s">
+        <v>81</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1903,16 +1960,19 @@
         <v>2201</v>
       </c>
       <c r="B26" t="s">
-        <v>80</v>
+        <v>84</v>
+      </c>
+      <c r="C26" t="s">
+        <v>85</v>
       </c>
       <c r="D26" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="F26">
         <v>0</v>
       </c>
       <c r="G26" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1920,10 +1980,13 @@
         <v>2291</v>
       </c>
       <c r="B27" t="s">
-        <v>83</v>
+        <v>88</v>
+      </c>
+      <c r="C27" t="s">
+        <v>89</v>
       </c>
       <c r="D27" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -1937,10 +2000,13 @@
         <v>2202</v>
       </c>
       <c r="B28" t="s">
-        <v>85</v>
+        <v>91</v>
+      </c>
+      <c r="C28" t="s">
+        <v>92</v>
       </c>
       <c r="D28" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -1954,10 +2020,13 @@
         <v>2301</v>
       </c>
       <c r="B29" t="s">
-        <v>87</v>
+        <v>94</v>
+      </c>
+      <c r="C29" t="s">
+        <v>95</v>
       </c>
       <c r="D29" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -1971,13 +2040,16 @@
         <v>2302</v>
       </c>
       <c r="B30" t="s">
-        <v>89</v>
+        <v>97</v>
+      </c>
+      <c r="C30" t="s">
+        <v>98</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="F30" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="G30">
         <v>1005</v>
@@ -1988,10 +2060,13 @@
         <v>2401</v>
       </c>
       <c r="B31" t="s">
-        <v>92</v>
+        <v>101</v>
+      </c>
+      <c r="C31" t="s">
+        <v>102</v>
       </c>
       <c r="D31" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -2005,10 +2080,13 @@
         <v>2491</v>
       </c>
       <c r="B32" t="s">
-        <v>94</v>
+        <v>104</v>
+      </c>
+      <c r="C32" t="s">
+        <v>105</v>
       </c>
       <c r="D32" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -2022,10 +2100,13 @@
         <v>2402</v>
       </c>
       <c r="B33" t="s">
-        <v>96</v>
+        <v>107</v>
+      </c>
+      <c r="C33" t="s">
+        <v>108</v>
       </c>
       <c r="D33" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -2039,10 +2120,13 @@
         <v>2901</v>
       </c>
       <c r="B34" t="s">
-        <v>98</v>
+        <v>110</v>
+      </c>
+      <c r="C34" t="s">
+        <v>111</v>
       </c>
       <c r="D34" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -2056,10 +2140,13 @@
         <v>2902</v>
       </c>
       <c r="B35" t="s">
-        <v>100</v>
+        <v>113</v>
+      </c>
+      <c r="C35" t="s">
+        <v>114</v>
       </c>
       <c r="D35" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="F35">
         <v>0</v>
@@ -2073,13 +2160,16 @@
         <v>2903</v>
       </c>
       <c r="B36" t="s">
-        <v>102</v>
+        <v>116</v>
+      </c>
+      <c r="C36" t="s">
+        <v>117</v>
       </c>
       <c r="D36" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="F36" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -2090,10 +2180,10 @@
         <v>3001</v>
       </c>
       <c r="B37" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="F37" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -2104,7 +2194,7 @@
         <v>3101</v>
       </c>
       <c r="B38" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -2118,7 +2208,7 @@
         <v>3102</v>
       </c>
       <c r="B39" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="F39" t="s">
         <v>16</v>
@@ -2132,7 +2222,7 @@
         <v>3103</v>
       </c>
       <c r="B40" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="F40">
         <v>0</v>
@@ -2146,7 +2236,7 @@
         <v>3201</v>
       </c>
       <c r="B41" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="F41">
         <v>0</v>
@@ -2160,7 +2250,7 @@
         <v>3301</v>
       </c>
       <c r="B42" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="F42">
         <v>0</v>
@@ -2174,7 +2264,7 @@
         <v>9001</v>
       </c>
       <c r="B43" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="F43">
         <v>0</v>
@@ -2188,7 +2278,7 @@
         <v>9002</v>
       </c>
       <c r="B44" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="F44">
         <v>0</v>
@@ -2202,7 +2292,7 @@
         <v>9101</v>
       </c>
       <c r="B45" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="F45">
         <v>0</v>
@@ -2216,7 +2306,7 @@
         <v>9102</v>
       </c>
       <c r="B46" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="F46">
         <v>0</v>
@@ -2230,7 +2320,7 @@
         <v>9103</v>
       </c>
       <c r="B47" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="F47">
         <v>0</v>
@@ -2244,7 +2334,7 @@
         <v>9104</v>
       </c>
       <c r="B48" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="F48">
         <v>0</v>
@@ -2258,7 +2348,7 @@
         <v>9201</v>
       </c>
       <c r="B49" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="F49">
         <v>0</v>
@@ -2272,7 +2362,7 @@
         <v>9202</v>
       </c>
       <c r="B50" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="F50">
         <v>0</v>
@@ -2286,7 +2376,7 @@
         <v>9301</v>
       </c>
       <c r="B51" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="F51">
         <v>0</v>
@@ -2300,7 +2390,7 @@
         <v>9901</v>
       </c>
       <c r="B52" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="F52">
         <v>0</v>

--- a/Assets/Excel/SkillDesc.xlsx
+++ b/Assets/Excel/SkillDesc.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="165">
   <si>
     <t>//Remark</t>
   </si>
@@ -103,8 +103,12 @@
     <t>即刻咏唱</t>
   </si>
   <si>
-    <t>&lt;sprite="Common" name="AP"&gt; AP Cost - 1 for &lt;b&gt;Fire Ball&lt;/b&gt;
-Damage - 4 for &lt;b&gt;Fire Ball&lt;/b&gt;</t>
+    <t>&lt;sprite="Common" name="AP"&gt; AP Cost - 1 for Fire Ball
+Damage - 4 for Fire Ball</t>
+  </si>
+  <si>
+    <t>火球术的 &lt;sprite="Common" name="AP"&gt; 行动力消耗-1
+但是伤害也会-4</t>
   </si>
   <si>
     <t>Inferno</t>
@@ -113,8 +117,12 @@
     <t>炼狱火海</t>
   </si>
   <si>
-    <t>&lt;sprite="Common" name="Radius"&gt; Radius + 1 for &lt;b&gt;Fire Ball&lt;/b&gt;
-Damage of &lt;b&gt;Fire Ball&lt;/b&gt; reduce 25%.</t>
+    <t>&lt;sprite="Common" name="Radius"&gt; Radius + 1 for Fire Ball
+Damage of Fire Ball reduce 25%.</t>
+  </si>
+  <si>
+    <t>火球术的 &lt;sprite="Common" name="Radius"&gt; 范围+1
+但伤害减少25%</t>
   </si>
   <si>
     <t>Focus</t>
@@ -123,8 +131,12 @@
     <t>聚焦</t>
   </si>
   <si>
-    <t>&lt;b&gt;Fire Ball&lt;/b&gt; will cost all &lt;sprite="Common" name="AP"&gt; AP
+    <t>Fire Ball will cost all &lt;sprite="Common" name="AP"&gt; AP and &lt;sprite="Common" name="Radius"&gt; Radius - 1
 Each extra &lt;sprite="Common" name="AP"&gt; AP deal more damage.</t>
+  </si>
+  <si>
+    <t>火球术会消耗所有 &lt;sprite="Common" name="AP"&gt; 行动力并且 &lt;sprite="Common" name="Radius"&gt; 范围-1
+额外消耗的 &lt;sprite="Common" name="AP"&gt; 行动力会增幅伤害</t>
   </si>
   <si>
     <t>Boom!</t>
@@ -135,6 +147,10 @@
   <si>
     <t>Select All Burning Targets.
 Deal damage equal to Burning X 2.5.</t>
+  </si>
+  <si>
+    <t>选取所有灼烧单位
+造成相当于灼烧层数X2.5的伤害</t>
   </si>
   <si>
     <t>TDmg;HurtAll</t>
@@ -151,16 +167,25 @@
 Damage will increase if higher &lt;sprite="Common" name="MOV"&gt; MOV of source and lower &lt;sprite="Common" name="MOV"&gt; MOV of target.</t>
   </si>
   <si>
+    <t>造成相当于 &lt;sprite="Common" name="ATK"&gt; 力量-1 的伤害
+减少目标 &lt;sprite="Common" name="MOV"&gt; 移动力
+自身 &lt;sprite="Common" name="MOV"&gt; 移动力越高，目标 &lt;sprite="Common" name="MOV"&gt; 移动力越低，伤害越高</t>
+  </si>
+  <si>
     <t>Genesis</t>
   </si>
   <si>
     <t>创世</t>
   </si>
   <si>
-    <t>&lt;b&gt;Gravity&lt;/b&gt; can break &lt;sprite="Tile" name="StoneT"&gt;Stone tile.
+    <t>Gravity can break &lt;sprite="Tile" name="StoneT"&gt; Stone tile.
 Randomly create special tile like &lt;sprite="Tile" name="MagicT"&gt; &lt;sprite="Tile" name="DuelT"&gt; &lt;sprite="Tile" name="GuardT"&gt; &lt;sprite="Tile" name="StealthT"&gt; &lt;sprite="Tile" name="HopeT"&gt;</t>
   </si>
   <si>
+    <t>重力会破坏 &lt;sprite="Tile" name="StoneT"&gt; 石地块
+概率生成类似 &lt;sprite="Tile" name="MagicT"&gt; &lt;sprite="Tile" name="DuelT"&gt; &lt;sprite="Tile" name="GuardT"&gt; &lt;sprite="Tile" name="StealthT"&gt; &lt;sprite="Tile" name="HopeT"&gt; 等特殊地块</t>
+  </si>
+  <si>
     <t>Chronal Shift</t>
   </si>
   <si>
@@ -168,6 +193,9 @@
   </si>
   <si>
     <t>Dodge next attack from &lt;sprite="Target" name="CUnit"&gt; Character,&lt;sprite="Target" name="FUnit"&gt; Foe or &lt;sprite="Target" name="PUnit"&gt; Plant.</t>
+  </si>
+  <si>
+    <t>必定闪避下次来自于 &lt;sprite="Target" name="CUnit"&gt; 角色,&lt;sprite="Target" name="FUnit"&gt; 敌人 or &lt;sprite="Target" name="PUnit"&gt; 植物的攻击</t>
   </si>
   <si>
     <t>Fourtain</t>
@@ -180,6 +208,10 @@
 Heal &lt;sprite="Target" name="PUnit"&gt; Plant equal to &lt;sprite="Common" name="RES"&gt; RES X2 + 1.</t>
   </si>
   <si>
+    <t>对 &lt;sprite="Target" name="FUnit"&gt; 敌人造成相当于 &lt;sprite="Common" name="RES"&gt; 魔防X2 + 1的伤害
+对 &lt;sprite="Target" name="PUnit"&gt; 植物造成相当于 &lt;sprite="Common" name="RES"&gt; 魔防X2 + 1的治疗</t>
+  </si>
+  <si>
     <t>Clear</t>
   </si>
   <si>
@@ -190,14 +222,22 @@
 Remove 1 buff for &lt;sprite="Target" name="FUnit"&gt; Foe</t>
   </si>
   <si>
+    <t>给 &lt;sprite="Target" name="CUnit"&gt; 角色或 &lt;sprite="Target" name="PUnit"&gt; 植物移除1层减益
+给 &lt;sprite="Target" name="FUnit"&gt; 敌人移除1层增益</t>
+  </si>
+  <si>
     <t>Drown</t>
   </si>
   <si>
     <t>淹没</t>
   </si>
   <si>
-    <t>&lt;sprite="Common" name="AP"&gt; AP Cost + 1 for &lt;b&gt;Fourtain&lt;/b&gt;
-&lt;b&gt;Fourtain&lt;/b&gt; will turn &lt;sprite="Tile" name="SoilT"&gt; Soil tile into &lt;sprite="Tile" name="WaterT"&gt; Water tile.</t>
+    <t>&lt;sprite="Common" name="AP"&gt; AP Cost + 1 for Fourtain
+Fourtain will turn &lt;sprite="Tile" name="SoilT"&gt; Soil tile into &lt;sprite="Tile" name="WaterT"&gt; Water tile.</t>
+  </si>
+  <si>
+    <t>喷流的 &lt;sprite="Common" name="AP"&gt; 行动力消耗+1
+喷流会转化 &lt;sprite="Tile" name="SoilT"&gt; 土地块成 &lt;sprite="Tile" name="WaterT"&gt; 水地块.</t>
   </si>
   <si>
     <t>Lightning</t>
@@ -211,6 +251,11 @@
 But damage will reduce according to distance.</t>
   </si>
   <si>
+    <t>造成相当于 &lt;sprite="Common" name="ATK"&gt; 力量+4 的伤害
+伤害能被 &lt;sprite="Tile" name="WaterT"&gt; 水地块传递，
+但伤害随距离衰减.</t>
+  </si>
+  <si>
     <t>MDmg;HurtCharacter</t>
   </si>
   <si>
@@ -221,7 +266,11 @@
   </si>
   <si>
     <t>Change position of &lt;sprite="Target" name="CUnit"&gt; Character or &lt;sprite="Target" name="PUnit"&gt; Plant.
-Distance of &lt;b&gt;Teleport&lt;/b&gt; will determined by &lt;sprite="Common" name="MOV"&gt; MOV.</t>
+Distance of Teleport will determined by &lt;sprite="Common" name="MOV"&gt; MOV.</t>
+  </si>
+  <si>
+    <t>传送 &lt;sprite="Target" name="CUnit"&gt; 角色或 &lt;sprite="Target" name="PUnit"&gt; 植物
+传送距离由 &lt;sprite="Common" name="MOV"&gt; 移动力决定</t>
   </si>
   <si>
     <t>High Voltage</t>
@@ -230,7 +279,10 @@
     <t>高压电</t>
   </si>
   <si>
-    <t>The damage decay of &lt;b&gt;Lightning Bolt&lt;/b&gt; will be reduced.</t>
+    <t>The damage decay of Lightning Bolt will be reduced.</t>
+  </si>
+  <si>
+    <t>闪电术的伤害衰减减少</t>
   </si>
   <si>
     <t>Time Expand</t>
@@ -244,6 +296,11 @@
 Except the buff from &lt;sprite="SkillType" name="USkill"&gt; Ultimate Skill</t>
   </si>
   <si>
+    <t>翻倍 &lt;sprite="Target" name="FUnit"&gt; 敌人的减益层数
+翻倍 &lt;sprite="Target" name="CUnit"&gt; 角色或 &lt;sprite="Target" name="PUnit"&gt; 植物的增益层数
+来自 &lt;sprite="SkillType" name="USkill"&gt; 终极技能的状态不受影响</t>
+  </si>
+  <si>
     <t>Infinity</t>
   </si>
   <si>
@@ -253,6 +310,9 @@
     <t>Gain 3 Infinity.</t>
   </si>
   <si>
+    <t>获得3层无限</t>
+  </si>
+  <si>
     <t>Rabbit Chant</t>
   </si>
   <si>
@@ -262,6 +322,9 @@
     <t>Cost &lt;sprite="Common" name="MOV"&gt; MOV to gain 3 Chanting.</t>
   </si>
   <si>
+    <t>消耗 &lt;sprite="Common" name="MOV"&gt; 移动力获得3层吟唱</t>
+  </si>
+  <si>
     <t>Strike</t>
   </si>
   <si>
@@ -277,6 +340,9 @@
     <t>勤劳新风</t>
   </si>
   <si>
+    <t>造成相当于 &lt;sprite="Common" name="ATK"&gt; 力量 的范围伤害</t>
+  </si>
+  <si>
     <t>Injury Benefit</t>
   </si>
   <si>
@@ -284,6 +350,9 @@
   </si>
   <si>
     <t>Deal 1 more damage when lost 3 &lt;sprite="Common" name="HP"&gt; HP.</t>
+  </si>
+  <si>
+    <t>每损失3点 &lt;sprite="Common" name="HP"&gt; 生命造成额外1点伤害</t>
   </si>
   <si>
     <t>Overtime Work</t>
@@ -296,6 +365,10 @@
 Gain 3 Burning.</t>
   </si>
   <si>
+    <t>消耗 &lt;sprite="Common" name="MOV"&gt; 移动力获得3层加班
+获得3层灼烧</t>
+  </si>
+  <si>
     <t>1002;4001</t>
   </si>
   <si>
@@ -308,6 +381,9 @@
     <t>Apply 2 Fear and 1 Fragile.</t>
   </si>
   <si>
+    <t>附加2层恐惧和1层脆弱</t>
+  </si>
+  <si>
     <t>2001;4002</t>
   </si>
   <si>
@@ -320,6 +396,9 @@
     <t>Deal damage to the unit that attack Ward.</t>
   </si>
   <si>
+    <t>对攻击Ward的敌人造成1点反伤</t>
+  </si>
+  <si>
     <t>Provoke</t>
   </si>
   <si>
@@ -329,13 +408,19 @@
     <t>Attract enemies' attack.</t>
   </si>
   <si>
+    <t>吸引敌人的注意</t>
+  </si>
+  <si>
     <t>Take a Nap</t>
   </si>
   <si>
     <t>三点饮茶</t>
   </si>
   <si>
-    <t>Heal &lt;sprite="Target" name="CUnit"&gt; Character equal to &lt;sprite="Common" name="HP"&gt; 25%HP.</t>
+    <t>Heal &lt;sprite="Target" name="CUnit"&gt; Character equal to &lt;sprite="Common" name="HP"&gt; 25%HP of Ward</t>
+  </si>
+  <si>
+    <t>对&lt;sprite="Target" name="CUnit"&gt; 角色造成相当于Ward &lt;sprite="Common" name="HP"&gt; 25%生命的治疗</t>
   </si>
   <si>
     <t>Fish Drat</t>
@@ -348,6 +433,10 @@
 Next strike will restore &lt;sprite="Common" name="HP"&gt; HP according to damage.</t>
   </si>
   <si>
+    <t>造成相当于 &lt;sprite="Common" name="DEF"&gt; 防御 的伤害
+下一次攻击恢复等同于伤害的 &lt;sprite="Common" name="HP"&gt; 生命</t>
+  </si>
+  <si>
     <t>TDmg</t>
   </si>
   <si>
@@ -360,6 +449,9 @@
     <t>Give 3 &lt;sprite="Common" name="MOV"&gt; MOV.</t>
   </si>
   <si>
+    <t>提供3点 &lt;sprite="Common" name="MOV"&gt; 移动力.</t>
+  </si>
+  <si>
     <t>Help from seniors</t>
   </si>
   <si>
@@ -369,6 +461,9 @@
     <t>&lt;sprite="Common" name="Range"&gt; Range + 1 for &lt;sprite="SkillType" name="SSkill"&gt; Support Skill</t>
   </si>
   <si>
+    <t>&lt;sprite="SkillType" name="SSkill"&gt; 辅助技能的&lt;sprite="Common" name="Range"&gt; 射程+1</t>
+  </si>
+  <si>
     <t>Handover</t>
   </si>
   <si>
@@ -378,13 +473,19 @@
     <t>Give 1 &lt;sprite="Common" name="AP"&gt; AP.</t>
   </si>
   <si>
-    <t>Deadline</t>
+    <t>提供1点 &lt;sprite="Common" name="AP"&gt; 行动力</t>
+  </si>
+  <si>
+    <t>Deadline Fighter</t>
   </si>
   <si>
     <t>截止日期</t>
   </si>
   <si>
-    <t>&lt;sprite="Common" name="HP"&gt; HP won't become 0.</t>
+    <t>&lt;sprite="Common" name="HP"&gt; HP won't become 0 this turn</t>
+  </si>
+  <si>
+    <t>本回合 &lt;sprite="Common" name="HP"&gt; 生命值不会归0</t>
   </si>
   <si>
     <t>Super Worker</t>
@@ -393,7 +494,10 @@
     <t>超级打工人</t>
   </si>
   <si>
-    <t xml:space="preserve">Increase &lt;sprite="Common" name="ATK"&gt; ATK &lt;sprite="Common" name="DEF"&gt; DEF &lt;sprite="Common" name="RES"&gt; RES &lt;sprite="Common" name="MOV"&gt; MOV by 1. </t>
+    <t xml:space="preserve">Cost &lt;sprite="Common" name="Memory"&gt; Memory to increase &lt;sprite="Common" name="ATK"&gt; ATK &lt;sprite="Common" name="DEF"&gt; DEF &lt;sprite="Common" name="RES"&gt; RES &lt;sprite="Common" name="MOV"&gt; MOV by 1. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">消耗 &lt;sprite="Common" name="Memory"&gt; 回忆，&lt;sprite="Common" name="ATK"&gt; 攻击 &lt;sprite="Common" name="DEF"&gt; 防御 &lt;sprite="Common" name="RES"&gt; 魔防 &lt;sprite="Common" name="MOV"&gt; 最大移动力各+1 </t>
   </si>
   <si>
     <t>Finish Work</t>
@@ -403,6 +507,9 @@
   </si>
   <si>
     <t>Cost &lt;sprite="Common" name="HP"&gt; HP to deal damage, the damage will be equal to cost &lt;sprite="Common" name="HP"&gt; HP.</t>
+  </si>
+  <si>
+    <t>消耗 &lt;sprite="Common" name="HP"&gt; 生命造成相当于消耗 &lt;sprite="Common" name="HP"&gt; 生命量的伤害</t>
   </si>
   <si>
     <t>Tadpole Strike</t>
@@ -1441,11 +1548,11 @@
   <dimension ref="A1:G52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D17" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D26" sqref="D26"/>
+      <selection pane="bottomRight" activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
@@ -1453,7 +1560,7 @@
     <col min="2" max="2" width="19.6363636363636" customWidth="1"/>
     <col min="3" max="3" width="11.7272727272727" customWidth="1"/>
     <col min="4" max="4" width="145.363636363636" customWidth="1"/>
-    <col min="5" max="5" width="40.6363636363636" customWidth="1"/>
+    <col min="5" max="5" width="77.9090909090909" customWidth="1"/>
     <col min="6" max="6" width="19.0909090909091" customWidth="1"/>
     <col min="7" max="7" width="13.2727272727273" customWidth="1"/>
   </cols>
@@ -1532,7 +1639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" ht="42" spans="1:7">
+    <row r="5" ht="28" spans="1:7">
       <c r="A5" s="2">
         <v>1101</v>
       </c>
@@ -1568,6 +1675,9 @@
       <c r="D6" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="E6" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="F6">
         <v>0</v>
       </c>
@@ -1580,13 +1690,16 @@
         <v>1192</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1595,18 +1708,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" ht="28" spans="1:7">
+    <row r="8" ht="42" spans="1:7">
       <c r="A8" s="2">
         <v>1193</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1620,33 +1736,39 @@
         <v>1102</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>33</v>
+        <v>36</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="F9" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G9">
         <v>4001</v>
       </c>
     </row>
-    <row r="10" ht="42" spans="1:7">
+    <row r="10" ht="56" spans="1:7">
       <c r="A10" s="4">
         <v>1202</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>37</v>
+        <v>41</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="F10" t="s">
         <v>16</v>
@@ -1655,18 +1777,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" ht="42" spans="1:7">
+    <row r="11" ht="56" spans="1:7">
       <c r="A11" s="4">
         <v>1291</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C11" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>40</v>
+        <v>45</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -1680,13 +1805,16 @@
         <v>1201</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D12" t="s">
-        <v>43</v>
+        <v>49</v>
+      </c>
+      <c r="E12" t="s">
+        <v>50</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -1695,18 +1823,21 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="13" ht="28" spans="1:7">
+    <row r="13" ht="56" spans="1:7">
       <c r="A13" s="5">
         <v>1301</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="C13" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>46</v>
+        <v>53</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="F13" t="s">
         <v>16</v>
@@ -1715,18 +1846,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" ht="28" spans="1:7">
+    <row r="14" ht="42" spans="1:7">
       <c r="A14" s="5">
         <v>1302</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="C14" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>49</v>
+        <v>57</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -1735,18 +1869,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" ht="28" spans="1:7">
+    <row r="15" ht="42" spans="1:7">
       <c r="A15" s="5">
         <v>1391</v>
       </c>
       <c r="B15" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="C15" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>52</v>
+        <v>61</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>62</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -1760,33 +1897,39 @@
         <v>1401</v>
       </c>
       <c r="B16" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C16" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>55</v>
+        <v>65</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="F16" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
     </row>
-    <row r="17" ht="28" spans="1:7">
+    <row r="17" ht="42" spans="1:7">
       <c r="A17" s="6">
         <v>1402</v>
       </c>
       <c r="B17" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="C17" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>59</v>
+        <v>70</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>71</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1800,13 +1943,16 @@
         <v>1491</v>
       </c>
       <c r="B18" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="C18" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="D18" t="s">
-        <v>62</v>
+        <v>74</v>
+      </c>
+      <c r="E18" t="s">
+        <v>75</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1815,18 +1961,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" ht="42" spans="1:7">
+    <row r="19" ht="56" spans="1:7">
       <c r="A19" s="7">
         <v>1901</v>
       </c>
       <c r="B19" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C19" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>65</v>
+        <v>78</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>79</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1840,13 +1989,16 @@
         <v>1902</v>
       </c>
       <c r="B20" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="C20" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>68</v>
+        <v>82</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>83</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1860,13 +2012,16 @@
         <v>1903</v>
       </c>
       <c r="B21" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="C21" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>71</v>
+        <v>86</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>87</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -1880,16 +2035,19 @@
         <v>2001</v>
       </c>
       <c r="B22" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="C22" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="D22" t="s">
         <v>14</v>
       </c>
+      <c r="E22" t="s">
+        <v>15</v>
+      </c>
       <c r="F22" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1900,16 +2058,19 @@
         <v>2101</v>
       </c>
       <c r="B23" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="C23" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="D23" t="s">
         <v>14</v>
       </c>
+      <c r="E23" t="s">
+        <v>93</v>
+      </c>
       <c r="F23" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1920,13 +2081,16 @@
         <v>2191</v>
       </c>
       <c r="B24" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="C24" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="D24" t="s">
-        <v>79</v>
+        <v>96</v>
+      </c>
+      <c r="E24" t="s">
+        <v>97</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -1940,19 +2104,22 @@
         <v>2102</v>
       </c>
       <c r="B25" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="C25" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>82</v>
+        <v>100</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>101</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1960,19 +2127,22 @@
         <v>2201</v>
       </c>
       <c r="B26" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="C26" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="D26" t="s">
-        <v>86</v>
+        <v>105</v>
+      </c>
+      <c r="E26" t="s">
+        <v>106</v>
       </c>
       <c r="F26">
         <v>0</v>
       </c>
       <c r="G26" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1980,13 +2150,16 @@
         <v>2291</v>
       </c>
       <c r="B27" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="C27" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="D27" t="s">
-        <v>90</v>
+        <v>110</v>
+      </c>
+      <c r="E27" t="s">
+        <v>111</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -2000,13 +2173,16 @@
         <v>2202</v>
       </c>
       <c r="B28" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="C28" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="D28" t="s">
-        <v>93</v>
+        <v>114</v>
+      </c>
+      <c r="E28" t="s">
+        <v>115</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -2020,13 +2196,16 @@
         <v>2301</v>
       </c>
       <c r="B29" t="s">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="C29" t="s">
-        <v>95</v>
+        <v>117</v>
       </c>
       <c r="D29" t="s">
-        <v>96</v>
+        <v>118</v>
+      </c>
+      <c r="E29" t="s">
+        <v>119</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -2040,16 +2219,19 @@
         <v>2302</v>
       </c>
       <c r="B30" t="s">
-        <v>97</v>
+        <v>120</v>
       </c>
       <c r="C30" t="s">
-        <v>98</v>
+        <v>121</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>99</v>
+        <v>122</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>123</v>
       </c>
       <c r="F30" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="G30">
         <v>1005</v>
@@ -2060,13 +2242,16 @@
         <v>2401</v>
       </c>
       <c r="B31" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="C31" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="D31" t="s">
-        <v>103</v>
+        <v>127</v>
+      </c>
+      <c r="E31" t="s">
+        <v>128</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -2080,13 +2265,16 @@
         <v>2491</v>
       </c>
       <c r="B32" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="C32" t="s">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="D32" t="s">
-        <v>106</v>
+        <v>131</v>
+      </c>
+      <c r="E32" t="s">
+        <v>132</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -2100,13 +2288,16 @@
         <v>2402</v>
       </c>
       <c r="B33" t="s">
-        <v>107</v>
+        <v>133</v>
       </c>
       <c r="C33" t="s">
-        <v>108</v>
+        <v>134</v>
       </c>
       <c r="D33" t="s">
-        <v>109</v>
+        <v>135</v>
+      </c>
+      <c r="E33" t="s">
+        <v>136</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -2120,13 +2311,16 @@
         <v>2901</v>
       </c>
       <c r="B34" t="s">
-        <v>110</v>
+        <v>137</v>
       </c>
       <c r="C34" t="s">
-        <v>111</v>
+        <v>138</v>
       </c>
       <c r="D34" t="s">
-        <v>112</v>
+        <v>139</v>
+      </c>
+      <c r="E34" t="s">
+        <v>140</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -2140,13 +2334,16 @@
         <v>2902</v>
       </c>
       <c r="B35" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="C35" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="D35" t="s">
-        <v>115</v>
+        <v>143</v>
+      </c>
+      <c r="E35" t="s">
+        <v>144</v>
       </c>
       <c r="F35">
         <v>0</v>
@@ -2160,16 +2357,19 @@
         <v>2903</v>
       </c>
       <c r="B36" t="s">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="C36" t="s">
-        <v>117</v>
+        <v>146</v>
       </c>
       <c r="D36" t="s">
-        <v>118</v>
+        <v>147</v>
+      </c>
+      <c r="E36" t="s">
+        <v>148</v>
       </c>
       <c r="F36" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -2180,10 +2380,10 @@
         <v>3001</v>
       </c>
       <c r="B37" t="s">
-        <v>119</v>
+        <v>149</v>
       </c>
       <c r="F37" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -2194,7 +2394,7 @@
         <v>3101</v>
       </c>
       <c r="B38" t="s">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -2208,7 +2408,7 @@
         <v>3102</v>
       </c>
       <c r="B39" t="s">
-        <v>121</v>
+        <v>151</v>
       </c>
       <c r="F39" t="s">
         <v>16</v>
@@ -2222,7 +2422,7 @@
         <v>3103</v>
       </c>
       <c r="B40" t="s">
-        <v>122</v>
+        <v>152</v>
       </c>
       <c r="F40">
         <v>0</v>
@@ -2236,7 +2436,7 @@
         <v>3201</v>
       </c>
       <c r="B41" t="s">
-        <v>123</v>
+        <v>153</v>
       </c>
       <c r="F41">
         <v>0</v>
@@ -2250,7 +2450,7 @@
         <v>3301</v>
       </c>
       <c r="B42" t="s">
-        <v>124</v>
+        <v>154</v>
       </c>
       <c r="F42">
         <v>0</v>
@@ -2264,7 +2464,7 @@
         <v>9001</v>
       </c>
       <c r="B43" t="s">
-        <v>125</v>
+        <v>155</v>
       </c>
       <c r="F43">
         <v>0</v>
@@ -2278,7 +2478,7 @@
         <v>9002</v>
       </c>
       <c r="B44" t="s">
-        <v>126</v>
+        <v>156</v>
       </c>
       <c r="F44">
         <v>0</v>
@@ -2292,7 +2492,7 @@
         <v>9101</v>
       </c>
       <c r="B45" t="s">
-        <v>127</v>
+        <v>157</v>
       </c>
       <c r="F45">
         <v>0</v>
@@ -2306,7 +2506,7 @@
         <v>9102</v>
       </c>
       <c r="B46" t="s">
-        <v>128</v>
+        <v>158</v>
       </c>
       <c r="F46">
         <v>0</v>
@@ -2320,7 +2520,7 @@
         <v>9103</v>
       </c>
       <c r="B47" t="s">
-        <v>129</v>
+        <v>159</v>
       </c>
       <c r="F47">
         <v>0</v>
@@ -2334,7 +2534,7 @@
         <v>9104</v>
       </c>
       <c r="B48" t="s">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="F48">
         <v>0</v>
@@ -2348,7 +2548,7 @@
         <v>9201</v>
       </c>
       <c r="B49" t="s">
-        <v>131</v>
+        <v>161</v>
       </c>
       <c r="F49">
         <v>0</v>
@@ -2362,7 +2562,7 @@
         <v>9202</v>
       </c>
       <c r="B50" t="s">
-        <v>132</v>
+        <v>162</v>
       </c>
       <c r="F50">
         <v>0</v>
@@ -2376,7 +2576,7 @@
         <v>9301</v>
       </c>
       <c r="B51" t="s">
-        <v>133</v>
+        <v>163</v>
       </c>
       <c r="F51">
         <v>0</v>
@@ -2390,7 +2590,7 @@
         <v>9901</v>
       </c>
       <c r="B52" t="s">
-        <v>134</v>
+        <v>164</v>
       </c>
       <c r="F52">
         <v>0</v>

--- a/Assets/Excel/SkillDesc.xlsx
+++ b/Assets/Excel/SkillDesc.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="166">
   <si>
     <t>//Remark</t>
   </si>
@@ -243,7 +243,7 @@
     <t>Lightning</t>
   </si>
   <si>
-    <t>闪电术</t>
+    <t>唤雷术</t>
   </si>
   <si>
     <t>Deal &lt;sprite="Common" name="ATK"&gt; ATK + 4 damage.
@@ -282,7 +282,7 @@
     <t>The damage decay of Lightning Bolt will be reduced.</t>
   </si>
   <si>
-    <t>闪电术的伤害衰减减少</t>
+    <t>唤雷术的伤害衰减减少</t>
   </si>
   <si>
     <t>Time Expand</t>
@@ -512,7 +512,7 @@
     <t>消耗 &lt;sprite="Common" name="HP"&gt; 生命造成相当于消耗 &lt;sprite="Common" name="HP"&gt; 生命量的伤害</t>
   </si>
   <si>
-    <t>Tadpole Strike</t>
+    <t>Tadpole Hair</t>
   </si>
   <si>
     <t>Cook Human On Time</t>
@@ -522,6 +522,9 @@
   </si>
   <si>
     <t>Random MilkTea</t>
+  </si>
+  <si>
+    <t>奶茶三兄弟</t>
   </si>
   <si>
     <t>Hero Rabbit</t>
@@ -1548,11 +1551,11 @@
   <dimension ref="A1:G52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D29" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E34" sqref="E34"/>
+      <selection pane="bottomRight" activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
@@ -2382,6 +2385,9 @@
       <c r="B37" t="s">
         <v>149</v>
       </c>
+      <c r="C37" t="s">
+        <v>149</v>
+      </c>
       <c r="F37" t="s">
         <v>124</v>
       </c>
@@ -2396,6 +2402,9 @@
       <c r="B38" t="s">
         <v>150</v>
       </c>
+      <c r="C38" t="s">
+        <v>150</v>
+      </c>
       <c r="F38">
         <v>0</v>
       </c>
@@ -2410,6 +2419,9 @@
       <c r="B39" t="s">
         <v>151</v>
       </c>
+      <c r="C39" t="s">
+        <v>151</v>
+      </c>
       <c r="F39" t="s">
         <v>16</v>
       </c>
@@ -2424,6 +2436,9 @@
       <c r="B40" t="s">
         <v>152</v>
       </c>
+      <c r="C40" t="s">
+        <v>153</v>
+      </c>
       <c r="F40">
         <v>0</v>
       </c>
@@ -2436,7 +2451,10 @@
         <v>3201</v>
       </c>
       <c r="B41" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="C41" t="s">
+        <v>154</v>
       </c>
       <c r="F41">
         <v>0</v>
@@ -2450,7 +2468,10 @@
         <v>3301</v>
       </c>
       <c r="B42" t="s">
-        <v>154</v>
+        <v>155</v>
+      </c>
+      <c r="C42" t="s">
+        <v>155</v>
       </c>
       <c r="F42">
         <v>0</v>
@@ -2464,7 +2485,10 @@
         <v>9001</v>
       </c>
       <c r="B43" t="s">
-        <v>155</v>
+        <v>156</v>
+      </c>
+      <c r="C43" t="s">
+        <v>156</v>
       </c>
       <c r="F43">
         <v>0</v>
@@ -2478,7 +2502,10 @@
         <v>9002</v>
       </c>
       <c r="B44" t="s">
-        <v>156</v>
+        <v>157</v>
+      </c>
+      <c r="C44" t="s">
+        <v>157</v>
       </c>
       <c r="F44">
         <v>0</v>
@@ -2492,7 +2519,10 @@
         <v>9101</v>
       </c>
       <c r="B45" t="s">
-        <v>157</v>
+        <v>158</v>
+      </c>
+      <c r="C45" t="s">
+        <v>158</v>
       </c>
       <c r="F45">
         <v>0</v>
@@ -2506,7 +2536,10 @@
         <v>9102</v>
       </c>
       <c r="B46" t="s">
-        <v>158</v>
+        <v>159</v>
+      </c>
+      <c r="C46" t="s">
+        <v>159</v>
       </c>
       <c r="F46">
         <v>0</v>
@@ -2520,7 +2553,10 @@
         <v>9103</v>
       </c>
       <c r="B47" t="s">
-        <v>159</v>
+        <v>160</v>
+      </c>
+      <c r="C47" t="s">
+        <v>160</v>
       </c>
       <c r="F47">
         <v>0</v>
@@ -2534,7 +2570,10 @@
         <v>9104</v>
       </c>
       <c r="B48" t="s">
-        <v>160</v>
+        <v>161</v>
+      </c>
+      <c r="C48" t="s">
+        <v>161</v>
       </c>
       <c r="F48">
         <v>0</v>
@@ -2548,7 +2587,10 @@
         <v>9201</v>
       </c>
       <c r="B49" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="C49" t="s">
+        <v>162</v>
       </c>
       <c r="F49">
         <v>0</v>
@@ -2562,7 +2604,10 @@
         <v>9202</v>
       </c>
       <c r="B50" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="C50" t="s">
+        <v>163</v>
       </c>
       <c r="F50">
         <v>0</v>
@@ -2576,7 +2621,10 @@
         <v>9301</v>
       </c>
       <c r="B51" t="s">
-        <v>163</v>
+        <v>164</v>
+      </c>
+      <c r="C51" t="s">
+        <v>164</v>
       </c>
       <c r="F51">
         <v>0</v>
@@ -2590,7 +2638,10 @@
         <v>9901</v>
       </c>
       <c r="B52" t="s">
-        <v>164</v>
+        <v>165</v>
+      </c>
+      <c r="C52" t="s">
+        <v>165</v>
       </c>
       <c r="F52">
         <v>0</v>

--- a/Assets/Excel/SkillDesc.xlsx
+++ b/Assets/Excel/SkillDesc.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="12080"/>
+    <workbookView windowWidth="14240" windowHeight="11090"/>
   </bookViews>
   <sheets>
     <sheet name="SkillDesc" sheetId="1" r:id="rId1"/>
@@ -1551,11 +1551,11 @@
   <dimension ref="A1:G52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D29" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="E19" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D59" sqref="D59"/>
+      <selection pane="bottomRight" activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
@@ -2237,7 +2237,7 @@
         <v>124</v>
       </c>
       <c r="G30">
-        <v>1005</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="31" spans="1:7">

--- a/Assets/Excel/SkillDesc.xlsx
+++ b/Assets/Excel/SkillDesc.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14240" windowHeight="11090"/>
+    <workbookView windowWidth="24750" windowHeight="12080"/>
   </bookViews>
   <sheets>
     <sheet name="SkillDesc" sheetId="1" r:id="rId1"/>
@@ -393,10 +393,10 @@
     <t>甩锅</t>
   </si>
   <si>
-    <t>Deal damage to the unit that attack Ward.</t>
-  </si>
-  <si>
-    <t>对攻击Ward的敌人造成1点反伤</t>
+    <t>Deal 2 damage to the unit that attack Ward.</t>
+  </si>
+  <si>
+    <t>对攻击Ward的敌人造成2点反伤</t>
   </si>
   <si>
     <t>Provoke</t>
@@ -1551,11 +1551,11 @@
   <dimension ref="A1:G52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="E19" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D11" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G30" sqref="G30"/>
+      <selection pane="bottomRight" activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>

--- a/Assets/Excel/SkillDesc.xlsx
+++ b/Assets/Excel/SkillDesc.xlsx
@@ -74,7 +74,7 @@
     <t>Deal &lt;sprite="Common" name="ATK"&gt; ATK damage.</t>
   </si>
   <si>
-    <t>造成相当于 &lt;sprite="Common" name="ATK"&gt; 力量 的伤害</t>
+    <t>造成相当于 &lt;sprite="Common" name="ATK"&gt; 攻击 的伤害</t>
   </si>
   <si>
     <t>MDmg</t>
@@ -87,11 +87,11 @@
   </si>
   <si>
     <t>Deal &lt;sprite="Common" name="ATK"&gt; ATK + 3 damage.
-Apply 1 Burning.</t>
-  </si>
-  <si>
-    <t>造成相当于 &lt;sprite="Common" name="ATK"&gt; 力量+3 的伤害
-附加1层灼烧</t>
+Apply 1 &lt;sprite="BuffS" name="Burn"&gt; Burning.</t>
+  </si>
+  <si>
+    <t>造成相当于 &lt;sprite="Common" name="ATK"&gt; 攻击+3 的伤害
+附加1层 &lt;sprite="BuffS" name="Burn"&gt; 灼烧</t>
   </si>
   <si>
     <t>MDmg;HurtAll</t>
@@ -145,12 +145,12 @@
     <t>爆破术</t>
   </si>
   <si>
-    <t>Select All Burning Targets.
-Deal damage equal to Burning X 2.5.</t>
-  </si>
-  <si>
-    <t>选取所有灼烧单位
-造成相当于灼烧层数X2.5的伤害</t>
+    <t>Select All &lt;sprite="BuffS" name="Burn"&gt; Burning Targets.
+Deal damage equal to &lt;sprite="BuffS" name="Burn"&gt; Burning X 2.5.</t>
+  </si>
+  <si>
+    <t>选取所有 &lt;sprite="BuffS" name="Burn"&gt; 灼烧单位
+造成相当于 &lt;sprite="BuffS" name="Burn"&gt; 灼烧层数X2.5的伤害</t>
   </si>
   <si>
     <t>TDmg;HurtAll</t>
@@ -167,7 +167,7 @@
 Damage will increase if higher &lt;sprite="Common" name="MOV"&gt; MOV of source and lower &lt;sprite="Common" name="MOV"&gt; MOV of target.</t>
   </si>
   <si>
-    <t>造成相当于 &lt;sprite="Common" name="ATK"&gt; 力量-1 的伤害
+    <t>造成相当于 &lt;sprite="Common" name="ATK"&gt; 攻击-1 的伤害
 减少目标 &lt;sprite="Common" name="MOV"&gt; 移动力
 自身 &lt;sprite="Common" name="MOV"&gt; 移动力越高，目标 &lt;sprite="Common" name="MOV"&gt; 移动力越低，伤害越高</t>
   </si>
@@ -192,10 +192,12 @@
     <t>时间变换</t>
   </si>
   <si>
-    <t>Dodge next attack from &lt;sprite="Target" name="CUnit"&gt; Character,&lt;sprite="Target" name="FUnit"&gt; Foe or &lt;sprite="Target" name="PUnit"&gt; Plant.</t>
-  </si>
-  <si>
-    <t>必定闪避下次来自于 &lt;sprite="Target" name="CUnit"&gt; 角色,&lt;sprite="Target" name="FUnit"&gt; 敌人 or &lt;sprite="Target" name="PUnit"&gt; 植物的攻击</t>
+    <t>Apply 1 &lt;sprite="BuffS" name="Evade"&gt; Evade.
+Dodge next attack from &lt;sprite="Target" name="CUnit"&gt; Character,&lt;sprite="Target" name="FUnit"&gt; Foe or &lt;sprite="Target" name="PUnit"&gt; Plant.</t>
+  </si>
+  <si>
+    <t>获得1层 &lt;sprite="BuffS" name="Evade"&gt; 闪避
+必定闪避下次来自于 &lt;sprite="Target" name="CUnit"&gt; 角色,&lt;sprite="Target" name="FUnit"&gt; 敌人 or &lt;sprite="Target" name="PUnit"&gt; 植物的攻击</t>
   </si>
   <si>
     <t>Fourtain</t>
@@ -232,7 +234,7 @@
     <t>淹没</t>
   </si>
   <si>
-    <t>&lt;sprite="Common" name="AP"&gt; AP Cost + 1 for Fourtain
+    <t>Fourtain effect value - 1.
 Fourtain will turn &lt;sprite="Tile" name="SoilT"&gt; Soil tile into &lt;sprite="Tile" name="WaterT"&gt; Water tile.</t>
   </si>
   <si>
@@ -251,7 +253,7 @@
 But damage will reduce according to distance.</t>
   </si>
   <si>
-    <t>造成相当于 &lt;sprite="Common" name="ATK"&gt; 力量+4 的伤害
+    <t>造成相当于 &lt;sprite="Common" name="ATK"&gt; 攻击+4 的伤害
 伤害能被 &lt;sprite="Tile" name="WaterT"&gt; 水地块传递，
 但伤害随距离衰减.</t>
   </si>
@@ -291,13 +293,13 @@
     <t>时间膨胀</t>
   </si>
   <si>
-    <t>Double the level of all debuff for &lt;sprite="Target" name="FUnit"&gt; Foe
-buff for &lt;sprite="Target" name="CUnit"&gt; Character or &lt;sprite="Target" name="PUnit"&gt; Plant
+    <t>Double the level of all &lt;sprite="BuffS" name="Down"&gt; debuff for &lt;sprite="Target" name="FUnit"&gt; Foe
+&lt;sprite="BuffS" name="Up"&gt; buff for &lt;sprite="Target" name="CUnit"&gt; Character or &lt;sprite="Target" name="PUnit"&gt; Plant
 Except the buff from &lt;sprite="SkillType" name="USkill"&gt; Ultimate Skill</t>
   </si>
   <si>
-    <t>翻倍 &lt;sprite="Target" name="FUnit"&gt; 敌人的减益层数
-翻倍 &lt;sprite="Target" name="CUnit"&gt; 角色或 &lt;sprite="Target" name="PUnit"&gt; 植物的增益层数
+    <t>翻倍 &lt;sprite="Target" name="FUnit"&gt; 敌人的 &lt;sprite="BuffS" name="Down"&gt; 减益层数
+翻倍 &lt;sprite="Target" name="CUnit"&gt; 角色或 &lt;sprite="Target" name="PUnit"&gt; 植物的 &lt;sprite="BuffS" name="Up"&gt; 增益层数
 来自 &lt;sprite="SkillType" name="USkill"&gt; 终极技能的状态不受影响</t>
   </si>
   <si>
@@ -307,10 +309,10 @@
     <t>无限！</t>
   </si>
   <si>
-    <t>Gain 3 Infinity.</t>
-  </si>
-  <si>
-    <t>获得3层无限</t>
+    <t>Gain 3 &lt;sprite="BuffS" name="Infinity"&gt; Infinity.</t>
+  </si>
+  <si>
+    <t>获得3层 &lt;sprite="BuffS" name="Infinity"&gt; 无限</t>
   </si>
   <si>
     <t>Rabbit Chant</t>
@@ -319,10 +321,10 @@
     <t>终焉吟唱</t>
   </si>
   <si>
-    <t>Cost &lt;sprite="Common" name="MOV"&gt; MOV to gain 3 Chanting.</t>
-  </si>
-  <si>
-    <t>消耗 &lt;sprite="Common" name="MOV"&gt; 移动力获得3层吟唱</t>
+    <t>Cost &lt;sprite="Common" name="MOV"&gt; MOV to gain 3 &lt;sprite="BuffS" name="Chant"&gt; Chanting.</t>
+  </si>
+  <si>
+    <t>消耗 &lt;sprite="Common" name="MOV"&gt; 移动力获得3层 &lt;sprite="BuffS" name="Chant"&gt; 吟唱</t>
   </si>
   <si>
     <t>Strike</t>
@@ -340,7 +342,7 @@
     <t>勤劳新风</t>
   </si>
   <si>
-    <t>造成相当于 &lt;sprite="Common" name="ATK"&gt; 力量 的范围伤害</t>
+    <t>造成相当于 &lt;sprite="Common" name="ATK"&gt; 攻击 的范围伤害</t>
   </si>
   <si>
     <t>Injury Benefit</t>
@@ -361,12 +363,12 @@
     <t>加班时刻</t>
   </si>
   <si>
-    <t>Cost &lt;sprite="Common" name="MOV"&gt; MOV to gain 3 Overtime Work. 
-Gain 3 Burning.</t>
-  </si>
-  <si>
-    <t>消耗 &lt;sprite="Common" name="MOV"&gt; 移动力获得3层加班
-获得3层灼烧</t>
+    <t>Cost &lt;sprite="Common" name="MOV"&gt; MOV to gain 3 &lt;sprite="BuffS" name="Overtime"&gt; Overtime Work. 
+Gain 3 &lt;sprite="BuffS" name="Burn"&gt; Burning.</t>
+  </si>
+  <si>
+    <t>消耗 &lt;sprite="Common" name="MOV"&gt; 移动力获得3层 &lt;sprite="BuffS" name="Overtime"&gt; 加班
+获得3层 &lt;sprite="BuffS" name="Burn"&gt; 灼烧</t>
   </si>
   <si>
     <t>1002;4001</t>
@@ -378,10 +380,10 @@
     <t>职场霸凌</t>
   </si>
   <si>
-    <t>Apply 2 Fear and 1 Fragile.</t>
-  </si>
-  <si>
-    <t>附加2层恐惧和1层脆弱</t>
+    <t>Apply 2 &lt;sprite="BuffS" name="Fear"&gt; Fear and 1 &lt;sprite="BuffS" name="Fragile"&gt; Fragile.</t>
+  </si>
+  <si>
+    <t>附加2层 &lt;sprite="BuffS" name="Fear"&gt; 恐惧和1层 &lt;sprite="BuffS" name="Fragile"&gt; 脆弱</t>
   </si>
   <si>
     <t>2001;4002</t>
@@ -405,10 +407,10 @@
     <t>恶毒嘲笑</t>
   </si>
   <si>
-    <t>Attract enemies' attack.</t>
-  </si>
-  <si>
-    <t>吸引敌人的注意</t>
+    <t>Apply 2 &lt;sprite="BuffS" name="Hated"&gt; Hated to attract enemies' attack.</t>
+  </si>
+  <si>
+    <t>获得2层 &lt;sprite="BuffS" name="Hated"&gt; 众矢之的，吸引敌人的注意</t>
   </si>
   <si>
     <t>Take a Nap</t>
@@ -430,11 +432,11 @@
   </si>
   <si>
     <t>Deal damage equal to &lt;sprite="Common" name="DEF"&gt; DEF
-Next strike will restore &lt;sprite="Common" name="HP"&gt; HP according to damage.</t>
+Gain 1 &lt;sprite="BuffS" name="Absorb"&gt; Absorb.</t>
   </si>
   <si>
     <t>造成相当于 &lt;sprite="Common" name="DEF"&gt; 防御 的伤害
-下一次攻击恢复等同于伤害的 &lt;sprite="Common" name="HP"&gt; 生命</t>
+获得1层 &lt;sprite="BuffS" name="Absorb"&gt; 吸收</t>
   </si>
   <si>
     <t>TDmg</t>
@@ -482,10 +484,10 @@
     <t>截止日期</t>
   </si>
   <si>
-    <t>&lt;sprite="Common" name="HP"&gt; HP won't become 0 this turn</t>
-  </si>
-  <si>
-    <t>本回合 &lt;sprite="Common" name="HP"&gt; 生命值不会归0</t>
+    <t>Gain 1 &lt;sprite="BuffS" name="Deadline"&gt; Deadline Fighter and thus &lt;sprite="Common" name="HP"&gt; HP won't become 0 this turn</t>
+  </si>
+  <si>
+    <t>获得1层 &lt;sprite="BuffS" name="Deadline"&gt; 截止日，本回合 &lt;sprite="Common" name="HP"&gt; 生命值不会归0</t>
   </si>
   <si>
     <t>Super Worker</t>
@@ -494,10 +496,10 @@
     <t>超级打工人</t>
   </si>
   <si>
-    <t xml:space="preserve">Cost &lt;sprite="Common" name="Memory"&gt; Memory to increase &lt;sprite="Common" name="ATK"&gt; ATK &lt;sprite="Common" name="DEF"&gt; DEF &lt;sprite="Common" name="RES"&gt; RES &lt;sprite="Common" name="MOV"&gt; MOV by 1. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">消耗 &lt;sprite="Common" name="Memory"&gt; 回忆，&lt;sprite="Common" name="ATK"&gt; 攻击 &lt;sprite="Common" name="DEF"&gt; 防御 &lt;sprite="Common" name="RES"&gt; 魔防 &lt;sprite="Common" name="MOV"&gt; 最大移动力各+1 </t>
+    <t xml:space="preserve">Cost &lt;sprite="Common" name="Memory"&gt; Memory to gain 3 &lt;sprite="BuffS" name="Super"&gt; Super Worker to increase &lt;sprite="Common" name="ATK"&gt; ATK &lt;sprite="Common" name="DEF"&gt; DEF &lt;sprite="Common" name="RES"&gt; RES &lt;sprite="Common" name="MOV"&gt; MOV by 1. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">消耗 &lt;sprite="Common" name="Memory"&gt; 回忆来获得3层 &lt;sprite="BuffS" name="Super"&gt; 超级打工人，&lt;sprite="Common" name="ATK"&gt; 攻击 &lt;sprite="Common" name="DEF"&gt; 防御 &lt;sprite="Common" name="RES"&gt; 魔防 &lt;sprite="Common" name="MOV"&gt; 最大移动力各+1 </t>
   </si>
   <si>
     <t>Finish Work</t>
@@ -1551,11 +1553,11 @@
   <dimension ref="A1:G52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D16" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D27" sqref="D27"/>
+      <selection pane="bottomRight" activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
@@ -1803,7 +1805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" ht="42" spans="1:7">
       <c r="A12" s="4">
         <v>1201</v>
       </c>
@@ -1813,10 +1815,10 @@
       <c r="C12" t="s">
         <v>48</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="3" t="s">
         <v>50</v>
       </c>
       <c r="F12">
@@ -1964,7 +1966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" ht="56" spans="1:7">
+    <row r="19" ht="70" spans="1:7">
       <c r="A19" s="7">
         <v>1901</v>
       </c>
@@ -2010,7 +2012,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" ht="28" spans="1:7">
       <c r="A21" s="7">
         <v>1903</v>
       </c>
@@ -2102,7 +2104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" ht="28" spans="1:7">
+    <row r="25" ht="42" spans="1:7">
       <c r="A25" s="2">
         <v>2102</v>
       </c>

--- a/Assets/Excel/SkillDesc.xlsx
+++ b/Assets/Excel/SkillDesc.xlsx
@@ -220,12 +220,12 @@
     <t>清心术</t>
   </si>
   <si>
-    <t>Remove 1 debuff for &lt;sprite="Target" name="CUnit"&gt; Character or &lt;sprite="Target" name="PUnit"&gt; Plant
-Remove 1 buff for &lt;sprite="Target" name="FUnit"&gt; Foe</t>
-  </si>
-  <si>
-    <t>给 &lt;sprite="Target" name="CUnit"&gt; 角色或 &lt;sprite="Target" name="PUnit"&gt; 植物移除1层减益
-给 &lt;sprite="Target" name="FUnit"&gt; 敌人移除1层增益</t>
+    <t>Remove 1 &lt;sprite="BuffS" name="Down"&gt; debuff for &lt;sprite="Target" name="CUnit"&gt; Character or &lt;sprite="Target" name="PUnit"&gt; Plant
+Remove 1 &lt;sprite="BuffS" name="Up"&gt; buff for &lt;sprite="Target" name="FUnit"&gt; Foe</t>
+  </si>
+  <si>
+    <t>给 &lt;sprite="Target" name="CUnit"&gt; 角色或 &lt;sprite="Target" name="PUnit"&gt; 植物移除1层 &lt;sprite="BuffS" name="Down"&gt; 减益
+给 &lt;sprite="Target" name="FUnit"&gt; 敌人移除1层 &lt;sprite="BuffS" name="Up"&gt; 增益</t>
   </si>
   <si>
     <t>Drown</t>
@@ -293,9 +293,8 @@
     <t>时间膨胀</t>
   </si>
   <si>
-    <t>Double the level of all &lt;sprite="BuffS" name="Down"&gt; debuff for &lt;sprite="Target" name="FUnit"&gt; Foe
-&lt;sprite="BuffS" name="Up"&gt; buff for &lt;sprite="Target" name="CUnit"&gt; Character or &lt;sprite="Target" name="PUnit"&gt; Plant
-Except the buff from &lt;sprite="SkillType" name="USkill"&gt; Ultimate Skill</t>
+    <t>Double the level of all &lt;sprite="BuffS" name="Down"&gt; debuff for &lt;sprite="Target" name="FUnit"&gt; Foe. Double &lt;sprite="BuffS" name="Up"&gt; buff for &lt;sprite="Target" name="CUnit"&gt; Character or &lt;sprite="Target" name="PUnit"&gt; Plant.
+Except the buff from &lt;sprite="SkillType" name="USkill"&gt; Ultimate Skill.</t>
   </si>
   <si>
     <t>翻倍 &lt;sprite="Target" name="FUnit"&gt; 敌人的 &lt;sprite="BuffS" name="Down"&gt; 减益层数
@@ -401,7 +400,7 @@
     <t>对攻击Ward的敌人造成2点反伤</t>
   </si>
   <si>
-    <t>Provoke</t>
+    <t>Mockery</t>
   </si>
   <si>
     <t>恶毒嘲笑</t>
@@ -413,7 +412,7 @@
     <t>获得2层 &lt;sprite="BuffS" name="Hated"&gt; 众矢之的，吸引敌人的注意</t>
   </si>
   <si>
-    <t>Take a Nap</t>
+    <t>Tea Break</t>
   </si>
   <si>
     <t>三点饮茶</t>
@@ -1553,11 +1552,11 @@
   <dimension ref="A1:G52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D16" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D20" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E35" sqref="E35"/>
+      <selection pane="bottomRight" activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>

--- a/Assets/Excel/SkillDesc.xlsx
+++ b/Assets/Excel/SkillDesc.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="170">
   <si>
     <t>//Remark</t>
   </si>
@@ -418,10 +418,22 @@
     <t>三点饮茶</t>
   </si>
   <si>
-    <t>Heal &lt;sprite="Target" name="CUnit"&gt; Character equal to &lt;sprite="Common" name="HP"&gt; 25%HP of Ward</t>
+    <t>Heal &lt;sprite="Target" name="CUnit"&gt; Character equal to &lt;sprite="Common" name="HP"&gt; 20%HP of Ward</t>
   </si>
   <si>
     <t>对&lt;sprite="Target" name="CUnit"&gt; 角色造成相当于Ward &lt;sprite="Common" name="HP"&gt; 25%生命的治疗</t>
+  </si>
+  <si>
+    <t>Pretend Working</t>
+  </si>
+  <si>
+    <t>摸鱼先告状</t>
+  </si>
+  <si>
+    <t>If &lt;sprite="Common" name="HP"&gt; HP is higher than 85% when turn start (except the first turn), gain 1 &lt;sprite="BuffS" name="Angry"&gt; Angry.</t>
+  </si>
+  <si>
+    <t>除了第一回合，回合开始时 &lt;sprite="Common" name="HP"&gt; 生命大于85%则获得1层 &lt;sprite="BuffS" name="Angry"&gt; 愤怒</t>
   </si>
   <si>
     <t>Fish Drat</t>
@@ -1549,14 +1561,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G52"/>
+  <dimension ref="A1:G53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="3" topLeftCell="D20" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B28" sqref="B28"/>
+      <selection pane="bottomRight" activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
@@ -2218,9 +2230,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" ht="28" spans="1:7">
+    <row r="30" spans="1:7">
       <c r="A30" s="5">
-        <v>2302</v>
+        <v>2391</v>
       </c>
       <c r="B30" t="s">
         <v>120</v>
@@ -2228,45 +2240,45 @@
       <c r="C30" t="s">
         <v>121</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D30" t="s">
         <v>122</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="E30" t="s">
         <v>123</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>3003</v>
+      </c>
+    </row>
+    <row r="31" ht="28" spans="1:7">
+      <c r="A31" s="5">
+        <v>2302</v>
+      </c>
+      <c r="B31" t="s">
         <v>124</v>
       </c>
-      <c r="G30">
+      <c r="C31" t="s">
+        <v>125</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="F31" t="s">
+        <v>128</v>
+      </c>
+      <c r="G31">
         <v>1007</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="6">
-        <v>2401</v>
-      </c>
-      <c r="B31" t="s">
-        <v>125</v>
-      </c>
-      <c r="C31" t="s">
-        <v>126</v>
-      </c>
-      <c r="D31" t="s">
-        <v>127</v>
-      </c>
-      <c r="E31" t="s">
-        <v>128</v>
-      </c>
-      <c r="F31">
-        <v>0</v>
-      </c>
-      <c r="G31">
-        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="6">
-        <v>2491</v>
+        <v>2401</v>
       </c>
       <c r="B32" t="s">
         <v>129</v>
@@ -2289,7 +2301,7 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="6">
-        <v>2402</v>
+        <v>2491</v>
       </c>
       <c r="B33" t="s">
         <v>133</v>
@@ -2311,8 +2323,8 @@
       </c>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="7">
-        <v>2901</v>
+      <c r="A34" s="6">
+        <v>2402</v>
       </c>
       <c r="B34" t="s">
         <v>137</v>
@@ -2330,12 +2342,12 @@
         <v>0</v>
       </c>
       <c r="G34">
-        <v>1001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="7">
-        <v>2902</v>
+        <v>2901</v>
       </c>
       <c r="B35" t="s">
         <v>141</v>
@@ -2353,12 +2365,12 @@
         <v>0</v>
       </c>
       <c r="G35">
-        <v>1004</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="7">
-        <v>2903</v>
+        <v>2902</v>
       </c>
       <c r="B36" t="s">
         <v>145</v>
@@ -2372,42 +2384,48 @@
       <c r="E36" t="s">
         <v>148</v>
       </c>
-      <c r="F36" t="s">
-        <v>90</v>
+      <c r="F36">
+        <v>0</v>
       </c>
       <c r="G36">
-        <v>0</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37">
-        <v>3001</v>
+      <c r="A37" s="7">
+        <v>2903</v>
       </c>
       <c r="B37" t="s">
         <v>149</v>
       </c>
       <c r="C37" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c r="D37" t="s">
+        <v>151</v>
+      </c>
+      <c r="E37" t="s">
+        <v>152</v>
       </c>
       <c r="F37" t="s">
-        <v>124</v>
+        <v>90</v>
       </c>
       <c r="G37">
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="1">
-        <v>3101</v>
+      <c r="A38">
+        <v>3001</v>
       </c>
       <c r="B38" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C38" t="s">
-        <v>150</v>
-      </c>
-      <c r="F38">
-        <v>0</v>
+        <v>153</v>
+      </c>
+      <c r="F38" t="s">
+        <v>128</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -2415,16 +2433,16 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="1">
-        <v>3102</v>
+        <v>3101</v>
       </c>
       <c r="B39" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C39" t="s">
-        <v>151</v>
-      </c>
-      <c r="F39" t="s">
-        <v>16</v>
+        <v>154</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -2432,30 +2450,30 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="1">
+        <v>3102</v>
+      </c>
+      <c r="B40" t="s">
+        <v>155</v>
+      </c>
+      <c r="C40" t="s">
+        <v>155</v>
+      </c>
+      <c r="F40" t="s">
+        <v>16</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="1">
         <v>3103</v>
       </c>
-      <c r="B40" t="s">
-        <v>152</v>
-      </c>
-      <c r="C40" t="s">
-        <v>153</v>
-      </c>
-      <c r="F40">
-        <v>0</v>
-      </c>
-      <c r="G40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41">
-        <v>3201</v>
-      </c>
       <c r="B41" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C41" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="F41">
         <v>0</v>
@@ -2466,13 +2484,13 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42">
-        <v>3301</v>
+        <v>3201</v>
       </c>
       <c r="B42" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C42" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="F42">
         <v>0</v>
@@ -2483,13 +2501,13 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43">
-        <v>9001</v>
+        <v>3301</v>
       </c>
       <c r="B43" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C43" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="F43">
         <v>0</v>
@@ -2500,13 +2518,13 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44">
-        <v>9002</v>
+        <v>9001</v>
       </c>
       <c r="B44" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C44" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="F44">
         <v>0</v>
@@ -2517,13 +2535,13 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45">
-        <v>9101</v>
+        <v>9002</v>
       </c>
       <c r="B45" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C45" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="F45">
         <v>0</v>
@@ -2534,13 +2552,13 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46">
-        <v>9102</v>
+        <v>9101</v>
       </c>
       <c r="B46" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C46" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="F46">
         <v>0</v>
@@ -2551,13 +2569,13 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47">
-        <v>9103</v>
+        <v>9102</v>
       </c>
       <c r="B47" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C47" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="F47">
         <v>0</v>
@@ -2568,13 +2586,13 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48">
-        <v>9104</v>
+        <v>9103</v>
       </c>
       <c r="B48" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C48" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="F48">
         <v>0</v>
@@ -2585,13 +2603,13 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49">
-        <v>9201</v>
+        <v>9104</v>
       </c>
       <c r="B49" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C49" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="F49">
         <v>0</v>
@@ -2602,13 +2620,13 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50">
-        <v>9202</v>
+        <v>9201</v>
       </c>
       <c r="B50" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C50" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="F50">
         <v>0</v>
@@ -2619,13 +2637,13 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51">
-        <v>9301</v>
+        <v>9202</v>
       </c>
       <c r="B51" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C51" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="F51">
         <v>0</v>
@@ -2636,18 +2654,35 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52">
+        <v>9301</v>
+      </c>
+      <c r="B52" t="s">
+        <v>168</v>
+      </c>
+      <c r="C52" t="s">
+        <v>168</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53">
         <v>9901</v>
       </c>
-      <c r="B52" t="s">
-        <v>165</v>
-      </c>
-      <c r="C52" t="s">
-        <v>165</v>
-      </c>
-      <c r="F52">
-        <v>0</v>
-      </c>
-      <c r="G52">
+      <c r="B53" t="s">
+        <v>169</v>
+      </c>
+      <c r="C53" t="s">
+        <v>169</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Excel/SkillDesc.xlsx
+++ b/Assets/Excel/SkillDesc.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="172">
   <si>
     <t>//Remark</t>
   </si>
@@ -571,6 +571,12 @@
   </si>
   <si>
     <t>Emotional Damage</t>
+  </si>
+  <si>
+    <t>Coffee</t>
+  </si>
+  <si>
+    <t>老板喝茶</t>
   </si>
   <si>
     <t>Summon Darkness</t>
@@ -1561,14 +1567,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G53"/>
+  <dimension ref="A1:G54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D22" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D30" sqref="D30"/>
+      <selection pane="bottomRight" activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
@@ -2671,18 +2677,35 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53">
-        <v>9901</v>
+        <v>9302</v>
       </c>
       <c r="B53" t="s">
         <v>169</v>
       </c>
       <c r="C53" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F53">
         <v>0</v>
       </c>
       <c r="G53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54">
+        <v>9901</v>
+      </c>
+      <c r="B54" t="s">
+        <v>171</v>
+      </c>
+      <c r="C54" t="s">
+        <v>171</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Excel/SkillDesc.xlsx
+++ b/Assets/Excel/SkillDesc.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="175">
   <si>
     <t>//Remark</t>
   </si>
@@ -580,6 +580,15 @@
   </si>
   <si>
     <t>Summon Darkness</t>
+  </si>
+  <si>
+    <t>黑暗召唤</t>
+  </si>
+  <si>
+    <t>Pressure</t>
+  </si>
+  <si>
+    <t>压力怪</t>
   </si>
 </sst>
 </file>
@@ -1567,14 +1576,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G54"/>
+  <dimension ref="A1:G55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D22" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D26" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C53" sqref="C53"/>
+      <selection pane="bottomRight" activeCell="F55" sqref="F55:G55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
@@ -2700,12 +2709,29 @@
         <v>171</v>
       </c>
       <c r="C54" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F54">
         <v>0</v>
       </c>
       <c r="G54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55">
+        <v>9902</v>
+      </c>
+      <c r="B55" t="s">
+        <v>173</v>
+      </c>
+      <c r="C55" t="s">
+        <v>174</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Excel/SkillDesc.xlsx
+++ b/Assets/Excel/SkillDesc.xlsx
@@ -65,7 +65,7 @@
     <t>int[]</t>
   </si>
   <si>
-    <t>Pluse Wave</t>
+    <t>Pulse Wave</t>
   </si>
   <si>
     <t>脉冲波动</t>
@@ -1579,11 +1579,11 @@
   <dimension ref="A1:G55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F55" sqref="F55:G55"/>
+      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>

--- a/Assets/Excel/SkillDesc.xlsx
+++ b/Assets/Excel/SkillDesc.xlsx
@@ -131,12 +131,10 @@
     <t>聚焦</t>
   </si>
   <si>
-    <t>Fire Ball will cost all &lt;sprite="Common" name="AP"&gt; AP and &lt;sprite="Common" name="Radius"&gt; Radius - 1
-Each extra &lt;sprite="Common" name="AP"&gt; AP deal more damage.</t>
-  </si>
-  <si>
-    <t>火球术会消耗所有 &lt;sprite="Common" name="AP"&gt; 行动力并且 &lt;sprite="Common" name="Radius"&gt; 范围-1
-额外消耗的 &lt;sprite="Common" name="AP"&gt; 行动力会增幅伤害</t>
+    <t>Fire Ball will cost all &lt;sprite="Common" name="AP"&gt; AP and &lt;sprite="Common" name="Radius"&gt; Radius - 1. If &lt;sprite="Common" name="AP"&gt; AP is bigger than 1, each extra &lt;sprite="Common" name="AP"&gt; AP deal more 125% &lt;sprite="Common" name="ATK"&gt; ATK damage.</t>
+  </si>
+  <si>
+    <t>火球术会消耗所有 &lt;sprite="Common" name="AP"&gt; 行动力并且 &lt;sprite="Common" name="Radius"&gt; 范围-1。如果&lt;sprite="Common" name="AP"&gt; 行动力大于1，大于1的每点 &lt;sprite="Common" name="AP"&gt; 行动力会追加125% &lt;sprite="Common" name="ATK"&gt; 攻击的伤害</t>
   </si>
   <si>
     <t>Boom!</t>
@@ -1579,11 +1577,11 @@
   <dimension ref="A1:G55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomRight" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
@@ -1739,7 +1737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" ht="42" spans="1:7">
+    <row r="8" ht="56" spans="1:7">
       <c r="A8" s="2">
         <v>1193</v>
       </c>

--- a/Assets/Excel/SkillDesc.xlsx
+++ b/Assets/Excel/SkillDesc.xlsx
@@ -428,10 +428,10 @@
     <t>摸鱼先告状</t>
   </si>
   <si>
-    <t>If &lt;sprite="Common" name="HP"&gt; HP is higher than 85% when turn start (except the first turn), gain 1 &lt;sprite="BuffS" name="Angry"&gt; Angry.</t>
-  </si>
-  <si>
-    <t>除了第一回合，回合开始时 &lt;sprite="Common" name="HP"&gt; 生命大于85%则获得1层 &lt;sprite="BuffS" name="Angry"&gt; 愤怒</t>
+    <t>If &lt;sprite="Common" name="HP"&gt; HP is higher than 85% when turn start (except the first turn), gain 1 &lt;sprite="BuffS" name="Angry"&gt; Angry and won't exceed 6 levels.</t>
+  </si>
+  <si>
+    <t>除了第一回合，回合开始时 &lt;sprite="Common" name="HP"&gt; 生命大于85%则获得1层 &lt;sprite="BuffS" name="Angry"&gt; 愤怒，不会超过6层</t>
   </si>
   <si>
     <t>Fish Drat</t>
@@ -1577,11 +1577,11 @@
   <dimension ref="A1:G55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D15" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E8" sqref="E8"/>
+      <selection pane="bottomRight" activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>

--- a/Assets/Excel/SkillDesc.xlsx
+++ b/Assets/Excel/SkillDesc.xlsx
@@ -428,10 +428,10 @@
     <t>摸鱼先告状</t>
   </si>
   <si>
-    <t>If &lt;sprite="Common" name="HP"&gt; HP is higher than 85% when turn start (except the first turn), gain 1 &lt;sprite="BuffS" name="Angry"&gt; Angry and won't exceed 6 levels.</t>
-  </si>
-  <si>
-    <t>除了第一回合，回合开始时 &lt;sprite="Common" name="HP"&gt; 生命大于85%则获得1层 &lt;sprite="BuffS" name="Angry"&gt; 愤怒，不会超过6层</t>
+    <t>If &lt;sprite="Common" name="HP"&gt; HP is higher than 85% when turn start (except the first turn), gain 1 &lt;sprite="BuffS" name="Angry"&gt; Angry and won't exceed 5 levels.</t>
+  </si>
+  <si>
+    <t>除了第一回合，回合开始时 &lt;sprite="Common" name="HP"&gt; 生命大于85%则获得1层 &lt;sprite="BuffS" name="Angry"&gt; 愤怒，不会超过5层</t>
   </si>
   <si>
     <t>Fish Drat</t>
@@ -1577,11 +1577,11 @@
   <dimension ref="A1:G55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="E15" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D30" sqref="D30"/>
+      <selection pane="bottomRight" activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>

--- a/Assets/Excel/SkillDesc.xlsx
+++ b/Assets/Excel/SkillDesc.xlsx
@@ -306,10 +306,10 @@
     <t>无限！</t>
   </si>
   <si>
-    <t>Gain 3 &lt;sprite="BuffS" name="Infinity"&gt; Infinity.</t>
-  </si>
-  <si>
-    <t>获得3层 &lt;sprite="BuffS" name="Infinity"&gt; 无限</t>
+    <t>Gain 4 &lt;sprite="BuffS" name="Infinity"&gt; Infinity.</t>
+  </si>
+  <si>
+    <t>获得4层 &lt;sprite="BuffS" name="Infinity"&gt; 无限</t>
   </si>
   <si>
     <t>Rabbit Chant</t>
@@ -440,8 +440,8 @@
     <t>给我摸鱼</t>
   </si>
   <si>
-    <t>Deal damage equal to &lt;sprite="Common" name="DEF"&gt; DEF
-Gain 1 &lt;sprite="BuffS" name="Absorb"&gt; Absorb.</t>
+    <t>Deal damage equal to &lt;sprite="Common" name="DEF"&gt; DEF.
+Gain 1 &lt;sprite="BuffS" name="Absorb"&gt; Absorb, next skill can restore &lt;sprite="Common" name="HP"&gt; HP equal to half of damage.</t>
   </si>
   <si>
     <t>造成相当于 &lt;sprite="Common" name="DEF"&gt; 防御 的伤害
@@ -517,10 +517,10 @@
     <t>完成工作！</t>
   </si>
   <si>
-    <t>Cost &lt;sprite="Common" name="HP"&gt; HP to deal damage, the damage will be equal to cost &lt;sprite="Common" name="HP"&gt; HP.</t>
-  </si>
-  <si>
-    <t>消耗 &lt;sprite="Common" name="HP"&gt; 生命造成相当于消耗 &lt;sprite="Common" name="HP"&gt; 生命量的伤害</t>
+    <t>Set &lt;sprite="Common" name="HP"&gt; HP to 1 and deal damage that equal to cost &lt;sprite="Common" name="HP"&gt; HP.</t>
+  </si>
+  <si>
+    <t>当前 &lt;sprite="Common" name="HP"&gt; 生命降至1，造成相当于消耗 &lt;sprite="Common" name="HP"&gt; 生命量的伤害</t>
   </si>
   <si>
     <t>Tadpole Hair</t>
@@ -1577,11 +1577,11 @@
   <dimension ref="A1:G55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="E15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D14" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E30" sqref="E30"/>
+      <selection pane="bottomRight" activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>

--- a/Assets/Excel/SkillDesc.xlsx
+++ b/Assets/Excel/SkillDesc.xlsx
@@ -1577,11 +1577,11 @@
   <dimension ref="A1:G55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D31" sqref="D31"/>
+      <selection pane="bottomRight" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>

--- a/Assets/Excel/SkillDesc.xlsx
+++ b/Assets/Excel/SkillDesc.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="184">
   <si>
     <t>//Remark</t>
   </si>
@@ -526,22 +526,49 @@
     <t>Tadpole Hair</t>
   </si>
   <si>
+    <t>蝌蚪植发</t>
+  </si>
+  <si>
     <t>Cook Human On Time</t>
   </si>
   <si>
+    <t>按时煮人</t>
+  </si>
+  <si>
     <t>Unstable Rabbit</t>
   </si>
   <si>
+    <t>不稳兔兔的电流</t>
+  </si>
+  <si>
     <t>Random MilkTea</t>
   </si>
   <si>
     <t>奶茶三兄弟</t>
   </si>
   <si>
+    <t>Gogo Rabbit's Trap</t>
+  </si>
+  <si>
+    <t>脱衣舞兔的陷阱</t>
+  </si>
+  <si>
     <t>Hero Rabbit</t>
   </si>
   <si>
+    <t>英雄兔兔的挑衅</t>
+  </si>
+  <si>
     <t>Void Rabbit</t>
+  </si>
+  <si>
+    <t>虚无兔兔的冲击</t>
+  </si>
+  <si>
+    <t>Rescuer Rabbit</t>
+  </si>
+  <si>
+    <t>救援兔兔的牺牲</t>
   </si>
   <si>
     <t>Bite</t>
@@ -1574,20 +1601,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G55"/>
+  <dimension ref="A1:G57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D31" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E5" sqref="E5"/>
+      <selection pane="bottomRight" activeCell="F42" sqref="F42:G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
   <cols>
     <col min="2" max="2" width="19.6363636363636" customWidth="1"/>
-    <col min="3" max="3" width="11.7272727272727" customWidth="1"/>
+    <col min="3" max="3" width="22.2727272727273" customWidth="1"/>
     <col min="4" max="4" width="145.363636363636" customWidth="1"/>
     <col min="5" max="5" width="77.9090909090909" customWidth="1"/>
     <col min="6" max="6" width="19.0909090909091" customWidth="1"/>
@@ -2435,7 +2462,7 @@
         <v>153</v>
       </c>
       <c r="C38" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F38" t="s">
         <v>128</v>
@@ -2449,10 +2476,10 @@
         <v>3101</v>
       </c>
       <c r="B39" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C39" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -2466,10 +2493,10 @@
         <v>3102</v>
       </c>
       <c r="B40" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C40" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="F40" t="s">
         <v>16</v>
@@ -2483,10 +2510,10 @@
         <v>3103</v>
       </c>
       <c r="B41" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C41" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="F41">
         <v>0</v>
@@ -2496,14 +2523,14 @@
       </c>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42">
-        <v>3201</v>
+      <c r="A42" s="1">
+        <v>3104</v>
       </c>
       <c r="B42" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C42" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="F42">
         <v>0</v>
@@ -2514,13 +2541,13 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43">
-        <v>3301</v>
+        <v>3201</v>
       </c>
       <c r="B43" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C43" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="F43">
         <v>0</v>
@@ -2531,13 +2558,13 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44">
-        <v>9001</v>
+        <v>3301</v>
       </c>
       <c r="B44" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C44" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="F44">
         <v>0</v>
@@ -2548,13 +2575,13 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45">
-        <v>9002</v>
+        <v>3401</v>
       </c>
       <c r="B45" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="C45" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="F45">
         <v>0</v>
@@ -2565,13 +2592,13 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46">
-        <v>9101</v>
+        <v>9001</v>
       </c>
       <c r="B46" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="C46" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="F46">
         <v>0</v>
@@ -2582,13 +2609,13 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47">
-        <v>9102</v>
+        <v>9002</v>
       </c>
       <c r="B47" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="C47" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="F47">
         <v>0</v>
@@ -2599,13 +2626,13 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48">
-        <v>9103</v>
+        <v>9101</v>
       </c>
       <c r="B48" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="C48" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="F48">
         <v>0</v>
@@ -2616,13 +2643,13 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49">
-        <v>9104</v>
+        <v>9102</v>
       </c>
       <c r="B49" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="C49" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="F49">
         <v>0</v>
@@ -2633,13 +2660,13 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50">
-        <v>9201</v>
+        <v>9103</v>
       </c>
       <c r="B50" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="C50" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="F50">
         <v>0</v>
@@ -2650,13 +2677,13 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51">
-        <v>9202</v>
+        <v>9104</v>
       </c>
       <c r="B51" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="C51" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="F51">
         <v>0</v>
@@ -2667,13 +2694,13 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52">
-        <v>9301</v>
+        <v>9201</v>
       </c>
       <c r="B52" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="C52" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="F52">
         <v>0</v>
@@ -2684,13 +2711,13 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53">
-        <v>9302</v>
+        <v>9202</v>
       </c>
       <c r="B53" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="C53" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="F53">
         <v>0</v>
@@ -2701,13 +2728,13 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54">
-        <v>9901</v>
+        <v>9301</v>
       </c>
       <c r="B54" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="C54" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="F54">
         <v>0</v>
@@ -2718,18 +2745,52 @@
     </row>
     <row r="55" spans="1:7">
       <c r="A55">
+        <v>9302</v>
+      </c>
+      <c r="B55" t="s">
+        <v>178</v>
+      </c>
+      <c r="C55" t="s">
+        <v>179</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56">
+        <v>9901</v>
+      </c>
+      <c r="B56" t="s">
+        <v>180</v>
+      </c>
+      <c r="C56" t="s">
+        <v>181</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57">
         <v>9902</v>
       </c>
-      <c r="B55" t="s">
-        <v>173</v>
-      </c>
-      <c r="C55" t="s">
-        <v>174</v>
-      </c>
-      <c r="F55">
-        <v>0</v>
-      </c>
-      <c r="G55">
+      <c r="B57" t="s">
+        <v>182</v>
+      </c>
+      <c r="C57" t="s">
+        <v>183</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Excel/SkillDesc.xlsx
+++ b/Assets/Excel/SkillDesc.xlsx
@@ -134,7 +134,7 @@
     <t>Fire Ball will cost all &lt;sprite="Common" name="AP"&gt; AP and &lt;sprite="Common" name="Radius"&gt; Radius - 1. If &lt;sprite="Common" name="AP"&gt; AP is bigger than 1, each extra &lt;sprite="Common" name="AP"&gt; AP deal more 125% &lt;sprite="Common" name="ATK"&gt; ATK damage.</t>
   </si>
   <si>
-    <t>火球术会消耗所有 &lt;sprite="Common" name="AP"&gt; 行动力并且 &lt;sprite="Common" name="Radius"&gt; 范围-1。如果&lt;sprite="Common" name="AP"&gt; 行动力大于1，大于1的每点 &lt;sprite="Common" name="AP"&gt; 行动力会追加125% &lt;sprite="Common" name="ATK"&gt; 攻击的伤害</t>
+    <t>火球术会消耗所有 &lt;sprite="Common" name="AP"&gt; 行动力并且 &lt;sprite="Common" name="Radius"&gt; 范围-1。如果&lt;sprite="Common" name="AP"&gt; 行动力大于1，大于1的每点 &lt;sprite="Common" name="AP"&gt; 行动力会追加150% &lt;sprite="Common" name="ATK"&gt; 攻击的伤害</t>
   </si>
   <si>
     <t>Boom!</t>
@@ -1604,11 +1604,11 @@
   <dimension ref="A1:G57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D31" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F42" sqref="F42:G45"/>
+      <selection pane="bottomRight" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>

--- a/Assets/Excel/SkillDesc.xlsx
+++ b/Assets/Excel/SkillDesc.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="12080"/>
+    <workbookView windowWidth="16130" windowHeight="8750"/>
   </bookViews>
   <sheets>
     <sheet name="SkillDesc" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="190">
   <si>
     <t>//Remark</t>
   </si>
@@ -547,10 +547,28 @@
     <t>奶茶三兄弟</t>
   </si>
   <si>
+    <t>3001;3002;5005</t>
+  </si>
+  <si>
     <t>Gogo Rabbit's Trap</t>
   </si>
   <si>
     <t>脱衣舞兔的陷阱</t>
+  </si>
+  <si>
+    <t>Motorhome Drive</t>
+  </si>
+  <si>
+    <t>房车兔兔的疾驶</t>
+  </si>
+  <si>
+    <t>Random Helper</t>
+  </si>
+  <si>
+    <t>异世界的协助者</t>
+  </si>
+  <si>
+    <t>5001;5002;5003</t>
   </si>
   <si>
     <t>Hero Rabbit</t>
@@ -1601,14 +1619,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G57"/>
+  <dimension ref="A1:G59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="E29" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E8" sqref="E8"/>
+      <selection pane="bottomRight" activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
@@ -2485,7 +2503,7 @@
         <v>0</v>
       </c>
       <c r="G39">
-        <v>0</v>
+        <v>4001</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -2518,8 +2536,8 @@
       <c r="F41">
         <v>0</v>
       </c>
-      <c r="G41">
-        <v>0</v>
+      <c r="G41" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -2527,78 +2545,78 @@
         <v>3104</v>
       </c>
       <c r="B42" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C42" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F42">
         <v>0</v>
       </c>
       <c r="G42">
-        <v>0</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43">
-        <v>3201</v>
+      <c r="A43" s="1">
+        <v>3105</v>
       </c>
       <c r="B43" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C43" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F43">
         <v>0</v>
       </c>
       <c r="G43">
-        <v>0</v>
+        <v>5004</v>
       </c>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44">
-        <v>3301</v>
+      <c r="A44" s="1">
+        <v>3106</v>
       </c>
       <c r="B44" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C44" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F44">
         <v>0</v>
       </c>
-      <c r="G44">
-        <v>0</v>
+      <c r="G44" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45">
-        <v>3401</v>
+        <v>3201</v>
       </c>
       <c r="B45" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C45" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F45">
         <v>0</v>
       </c>
       <c r="G45">
-        <v>0</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46">
-        <v>9001</v>
+        <v>3301</v>
       </c>
       <c r="B46" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C46" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="F46">
         <v>0</v>
@@ -2609,30 +2627,30 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47">
-        <v>9002</v>
+        <v>3401</v>
       </c>
       <c r="B47" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C47" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="F47">
         <v>0</v>
       </c>
       <c r="G47">
-        <v>0</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48">
-        <v>9101</v>
+        <v>9001</v>
       </c>
       <c r="B48" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C48" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="F48">
         <v>0</v>
@@ -2643,13 +2661,13 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49">
-        <v>9102</v>
+        <v>9002</v>
       </c>
       <c r="B49" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C49" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="F49">
         <v>0</v>
@@ -2660,13 +2678,13 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50">
-        <v>9103</v>
+        <v>9101</v>
       </c>
       <c r="B50" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="C50" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="F50">
         <v>0</v>
@@ -2677,13 +2695,13 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51">
-        <v>9104</v>
+        <v>9102</v>
       </c>
       <c r="B51" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C51" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="F51">
         <v>0</v>
@@ -2694,13 +2712,13 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52">
-        <v>9201</v>
+        <v>9103</v>
       </c>
       <c r="B52" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="C52" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="F52">
         <v>0</v>
@@ -2711,13 +2729,13 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53">
-        <v>9202</v>
+        <v>9104</v>
       </c>
       <c r="B53" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="C53" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="F53">
         <v>0</v>
@@ -2728,13 +2746,13 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54">
-        <v>9301</v>
+        <v>9201</v>
       </c>
       <c r="B54" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C54" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="F54">
         <v>0</v>
@@ -2745,13 +2763,13 @@
     </row>
     <row r="55" spans="1:7">
       <c r="A55">
-        <v>9302</v>
+        <v>9202</v>
       </c>
       <c r="B55" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="C55" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="F55">
         <v>0</v>
@@ -2762,13 +2780,13 @@
     </row>
     <row r="56" spans="1:7">
       <c r="A56">
-        <v>9901</v>
+        <v>9301</v>
       </c>
       <c r="B56" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C56" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F56">
         <v>0</v>
@@ -2779,18 +2797,52 @@
     </row>
     <row r="57" spans="1:7">
       <c r="A57">
+        <v>9302</v>
+      </c>
+      <c r="B57" t="s">
+        <v>184</v>
+      </c>
+      <c r="C57" t="s">
+        <v>185</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58">
+        <v>9901</v>
+      </c>
+      <c r="B58" t="s">
+        <v>186</v>
+      </c>
+      <c r="C58" t="s">
+        <v>187</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59">
         <v>9902</v>
       </c>
-      <c r="B57" t="s">
-        <v>182</v>
-      </c>
-      <c r="C57" t="s">
-        <v>183</v>
-      </c>
-      <c r="F57">
-        <v>0</v>
-      </c>
-      <c r="G57">
+      <c r="B59" t="s">
+        <v>188</v>
+      </c>
+      <c r="C59" t="s">
+        <v>189</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Excel/SkillDesc.xlsx
+++ b/Assets/Excel/SkillDesc.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16130" windowHeight="8750"/>
+    <workbookView windowWidth="24750" windowHeight="12080"/>
   </bookViews>
   <sheets>
     <sheet name="SkillDesc" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="199">
   <si>
     <t>//Remark</t>
   </si>
@@ -162,12 +162,12 @@
   <si>
     <t>Deal &lt;sprite="Common" name="ATK"&gt; ATK - 1 damage.
 Reduce targets' &lt;sprite="Common" name="MOV"&gt; MOV.
-Damage will increase if higher &lt;sprite="Common" name="MOV"&gt; MOV of source and lower &lt;sprite="Common" name="MOV"&gt; MOV of target.</t>
+Every &lt;sprite="Common" name="MOV"&gt; MOV more than the target will increase 2 damage.</t>
   </si>
   <si>
     <t>造成相当于 &lt;sprite="Common" name="ATK"&gt; 攻击-1 的伤害
 减少目标 &lt;sprite="Common" name="MOV"&gt; 移动力
-自身 &lt;sprite="Common" name="MOV"&gt; 移动力越高，目标 &lt;sprite="Common" name="MOV"&gt; 移动力越低，伤害越高</t>
+每比对方多1点 &lt;sprite="Common" name="MOV"&gt; 移动力, 伤害提升2点。</t>
   </si>
   <si>
     <t>Genesis</t>
@@ -592,28 +592,55 @@
     <t>Bite</t>
   </si>
   <si>
+    <t>咬你！</t>
+  </si>
+  <si>
     <t>Write me!</t>
   </si>
   <si>
+    <t>写我！</t>
+  </si>
+  <si>
     <t>Anxious Nodule</t>
   </si>
   <si>
+    <t>焦虑纸团</t>
+  </si>
+  <si>
     <t>Anxious Fire</t>
   </si>
   <si>
+    <t>焦虑之火</t>
+  </si>
+  <si>
     <t>Anxious Water</t>
   </si>
   <si>
+    <t>焦虑之水</t>
+  </si>
+  <si>
     <t>Anxious Gravity</t>
   </si>
   <si>
+    <t>焦虑之暗</t>
+  </si>
+  <si>
     <t>Vision</t>
   </si>
   <si>
-    <t>Cruelty</t>
+    <t>远见</t>
+  </si>
+  <si>
+    <t>Trial</t>
+  </si>
+  <si>
+    <t>拷问</t>
   </si>
   <si>
     <t>Emotional Damage</t>
+  </si>
+  <si>
+    <t>心灵伤害</t>
   </si>
   <si>
     <t>Coffee</t>
@@ -1622,11 +1649,11 @@
   <dimension ref="A1:G59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="E29" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D9" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G47" sqref="G47"/>
+      <selection pane="bottomRight" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
@@ -1828,7 +1855,7 @@
         <v>4001</v>
       </c>
     </row>
-    <row r="10" ht="56" spans="1:7">
+    <row r="10" ht="42" spans="1:7">
       <c r="A10" s="4">
         <v>1202</v>
       </c>
@@ -2650,7 +2677,7 @@
         <v>175</v>
       </c>
       <c r="C48" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F48">
         <v>0</v>
@@ -2664,10 +2691,10 @@
         <v>9002</v>
       </c>
       <c r="B49" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C49" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F49">
         <v>0</v>
@@ -2681,10 +2708,10 @@
         <v>9101</v>
       </c>
       <c r="B50" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C50" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="F50">
         <v>0</v>
@@ -2698,10 +2725,10 @@
         <v>9102</v>
       </c>
       <c r="B51" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C51" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="F51">
         <v>0</v>
@@ -2715,10 +2742,10 @@
         <v>9103</v>
       </c>
       <c r="B52" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="C52" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="F52">
         <v>0</v>
@@ -2732,10 +2759,10 @@
         <v>9104</v>
       </c>
       <c r="B53" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="C53" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="F53">
         <v>0</v>
@@ -2749,10 +2776,10 @@
         <v>9201</v>
       </c>
       <c r="B54" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="C54" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="F54">
         <v>0</v>
@@ -2766,10 +2793,10 @@
         <v>9202</v>
       </c>
       <c r="B55" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="C55" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="F55">
         <v>0</v>
@@ -2783,10 +2810,10 @@
         <v>9301</v>
       </c>
       <c r="B56" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="C56" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="F56">
         <v>0</v>
@@ -2800,10 +2827,10 @@
         <v>9302</v>
       </c>
       <c r="B57" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="C57" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="F57">
         <v>0</v>
@@ -2817,10 +2844,10 @@
         <v>9901</v>
       </c>
       <c r="B58" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="C58" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="F58">
         <v>0</v>
@@ -2834,10 +2861,10 @@
         <v>9902</v>
       </c>
       <c r="B59" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="C59" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="F59">
         <v>0</v>

--- a/Assets/Excel/SkillDesc.xlsx
+++ b/Assets/Excel/SkillDesc.xlsx
@@ -1649,11 +1649,11 @@
   <dimension ref="A1:G59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D10" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomRight" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>

--- a/Assets/Excel/SkillDesc.xlsx
+++ b/Assets/Excel/SkillDesc.xlsx
@@ -137,10 +137,10 @@
     <t>火球术会消耗所有 &lt;sprite="Common" name="AP"&gt; 行动力并且 &lt;sprite="Common" name="Radius"&gt; 范围-1。如果&lt;sprite="Common" name="AP"&gt; 行动力大于1，大于1的每点 &lt;sprite="Common" name="AP"&gt; 行动力会追加150% &lt;sprite="Common" name="ATK"&gt; 攻击的伤害</t>
   </si>
   <si>
-    <t>Boom!</t>
-  </si>
-  <si>
-    <t>爆破术</t>
+    <t>Explosion</t>
+  </si>
+  <si>
+    <t>核爆</t>
   </si>
   <si>
     <t>Select All &lt;sprite="BuffS" name="Burn"&gt; Burning Targets.
@@ -236,8 +236,8 @@
 Fourtain will turn &lt;sprite="Tile" name="SoilT"&gt; Soil tile into &lt;sprite="Tile" name="WaterT"&gt; Water tile.</t>
   </si>
   <si>
-    <t>喷流的 &lt;sprite="Common" name="AP"&gt; 行动力消耗+1
-喷流会转化 &lt;sprite="Tile" name="SoilT"&gt; 土地块成 &lt;sprite="Tile" name="WaterT"&gt; 水地块.</t>
+    <t>喷流的效果量-1。
+喷流会转化 &lt;sprite="Tile" name="SoilT"&gt; 土地块成 &lt;sprite="Tile" name="WaterT"&gt; 水地块。</t>
   </si>
   <si>
     <t>Lightning</t>
@@ -297,7 +297,7 @@
   <si>
     <t>翻倍 &lt;sprite="Target" name="FUnit"&gt; 敌人的 &lt;sprite="BuffS" name="Down"&gt; 减益层数
 翻倍 &lt;sprite="Target" name="CUnit"&gt; 角色或 &lt;sprite="Target" name="PUnit"&gt; 植物的 &lt;sprite="BuffS" name="Up"&gt; 增益层数
-来自 &lt;sprite="SkillType" name="USkill"&gt; 终极技能的状态不受影响</t>
+来自 &lt;sprite="SkillType" name="USkill"&gt; 究极技能的状态不受影响</t>
   </si>
   <si>
     <t>Infinity</t>
@@ -416,10 +416,10 @@
     <t>三点饮茶</t>
   </si>
   <si>
-    <t>Heal &lt;sprite="Target" name="CUnit"&gt; Character equal to &lt;sprite="Common" name="HP"&gt; 20%HP of Ward</t>
-  </si>
-  <si>
-    <t>对&lt;sprite="Target" name="CUnit"&gt; 角色造成相当于Ward &lt;sprite="Common" name="HP"&gt; 25%生命的治疗</t>
+    <t>Heal &lt;sprite="Target" name="CUnit"&gt; a Character equal to &lt;sprite="Common" name="HP"&gt; 20%HP of Ward</t>
+  </si>
+  <si>
+    <t>对&lt;sprite="Target" name="CUnit"&gt; 一名角色造成相当于Ward &lt;sprite="Common" name="HP"&gt; 25%生命的治疗</t>
   </si>
   <si>
     <t>Pretend Working</t>
@@ -1649,11 +1649,11 @@
   <dimension ref="A1:G59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D12" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D16" sqref="D16"/>
+      <selection pane="bottomRight" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>

--- a/Assets/Excel/SkillDesc.xlsx
+++ b/Assets/Excel/SkillDesc.xlsx
@@ -222,8 +222,8 @@
 Remove 1 &lt;sprite="BuffS" name="Up"&gt; buff for &lt;sprite="Target" name="FUnit"&gt; Foe</t>
   </si>
   <si>
-    <t>给 &lt;sprite="Target" name="CUnit"&gt; 角色或 &lt;sprite="Target" name="PUnit"&gt; 植物移除1层 &lt;sprite="BuffS" name="Down"&gt; 减益
-给 &lt;sprite="Target" name="FUnit"&gt; 敌人移除1层 &lt;sprite="BuffS" name="Up"&gt; 增益</t>
+    <t>给 &lt;sprite="Target" name="CUnit"&gt; 角色或 &lt;sprite="Target" name="PUnit"&gt; 植物移除1个 &lt;sprite="BuffS" name="Down"&gt; 减益
+给 &lt;sprite="Target" name="FUnit"&gt; 敌人移除1个 &lt;sprite="BuffS" name="Up"&gt; 增益</t>
   </si>
   <si>
     <t>Drown</t>
@@ -428,10 +428,10 @@
     <t>摸鱼先告状</t>
   </si>
   <si>
-    <t>If &lt;sprite="Common" name="HP"&gt; HP is higher than 85% when turn start (except the first turn), gain 1 &lt;sprite="BuffS" name="Angry"&gt; Angry and won't exceed 5 levels.</t>
-  </si>
-  <si>
-    <t>除了第一回合，回合开始时 &lt;sprite="Common" name="HP"&gt; 生命大于85%则获得1层 &lt;sprite="BuffS" name="Angry"&gt; 愤怒，不会超过5层</t>
+    <t>If &lt;sprite="Common" name="HP"&gt; HP is higher than 99% when turn start (except the first turn), gain 1 &lt;sprite="BuffS" name="Angry"&gt; Angry and won't exceed 3 levels.</t>
+  </si>
+  <si>
+    <t>除了第一回合，回合开始时 &lt;sprite="Common" name="HP"&gt; 生命大于99%则获得1层 &lt;sprite="BuffS" name="Angry"&gt; 愤怒，这种方式获得的&lt;sprite="BuffS" name="Angry"&gt; 愤怒不会超过3层。</t>
   </si>
   <si>
     <t>Fish Drat</t>
@@ -1649,11 +1649,11 @@
   <dimension ref="A1:G59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="E15" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E15" sqref="E15"/>
+      <selection pane="bottomRight" activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>

--- a/Assets/Excel/SkillDesc.xlsx
+++ b/Assets/Excel/SkillDesc.xlsx
@@ -472,7 +472,7 @@
     <t>&lt;sprite="Common" name="Range"&gt; Range + 1 for &lt;sprite="SkillType" name="SSkill"&gt; Support Skill</t>
   </si>
   <si>
-    <t>&lt;sprite="SkillType" name="SSkill"&gt; 辅助技能的&lt;sprite="Common" name="Range"&gt; 射程+1</t>
+    <t>&lt;sprite="SkillType" name="SSkill"&gt; 支援技能的&lt;sprite="Common" name="Range"&gt; 射程+1</t>
   </si>
   <si>
     <t>Handover</t>
@@ -1649,11 +1649,11 @@
   <dimension ref="A1:G59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="E15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="E19" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A30" sqref="A30"/>
+      <selection pane="bottomRight" activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>

--- a/Assets/Excel/SkillDesc.xlsx
+++ b/Assets/Excel/SkillDesc.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="200">
   <si>
     <t>//Remark</t>
   </si>
@@ -86,12 +86,14 @@
     <t>火球术</t>
   </si>
   <si>
-    <t>Deal &lt;sprite="Common" name="ATK"&gt; ATK + 3 damage.
-Apply 1 &lt;sprite="BuffS" name="Burn"&gt; Burning.</t>
-  </si>
-  <si>
-    <t>造成相当于 &lt;sprite="Common" name="ATK"&gt; 攻击+3 的伤害
-附加1层 &lt;sprite="BuffS" name="Burn"&gt; 灼烧</t>
+    <t>Deal &lt;sprite="Common" name="ATK"&gt; ATK + 4 damage.
+Apply 1 &lt;sprite="BuffS" name="Burn"&gt; Burning.
+Can burn &lt;sprite="Tile" name="GrassT"&gt; Grass and &lt;sprite="Tile" name="FlowerT"&gt; Flower.</t>
+  </si>
+  <si>
+    <t>造成相当于 &lt;sprite="Common" name="ATK"&gt; 攻击+4 的伤害
+附加1层 &lt;sprite="BuffS" name="Burn"&gt; 灼烧
+点燃 &lt;sprite="Tile" name="GrassT"&gt; 草地块和 &lt;sprite="Tile" name="FlowerT"&gt; 花地块</t>
   </si>
   <si>
     <t>MDmg;HurtAll</t>
@@ -339,7 +341,10 @@
     <t>勤劳新风</t>
   </si>
   <si>
-    <t>造成相当于 &lt;sprite="Common" name="ATK"&gt; 攻击 的范围伤害</t>
+    <t>Deal &lt;sprite="Common" name="ATK"&gt; ATK + 1 damage.</t>
+  </si>
+  <si>
+    <t>造成相当于 &lt;sprite="Common" name="ATK"&gt; 攻击+1 的范围伤害</t>
   </si>
   <si>
     <t>Injury Benefit</t>
@@ -1649,11 +1654,11 @@
   <dimension ref="A1:G59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="E19" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E33" sqref="E33"/>
+      <selection pane="bottomRight" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
@@ -1740,7 +1745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" ht="28" spans="1:7">
+    <row r="5" ht="56" spans="1:7">
       <c r="A5" s="2">
         <v>1101</v>
       </c>
@@ -2165,10 +2170,10 @@
         <v>92</v>
       </c>
       <c r="D23" t="s">
-        <v>14</v>
+        <v>93</v>
       </c>
       <c r="E23" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F23" t="s">
         <v>90</v>
@@ -2182,16 +2187,16 @@
         <v>2191</v>
       </c>
       <c r="B24" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C24" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D24" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E24" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -2205,22 +2210,22 @@
         <v>2102</v>
       </c>
       <c r="B25" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C25" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -2228,22 +2233,22 @@
         <v>2201</v>
       </c>
       <c r="B26" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C26" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D26" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E26" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F26">
         <v>0</v>
       </c>
       <c r="G26" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -2251,16 +2256,16 @@
         <v>2291</v>
       </c>
       <c r="B27" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C27" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D27" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E27" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -2274,16 +2279,16 @@
         <v>2202</v>
       </c>
       <c r="B28" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C28" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D28" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E28" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -2297,16 +2302,16 @@
         <v>2301</v>
       </c>
       <c r="B29" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C29" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D29" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E29" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -2320,16 +2325,16 @@
         <v>2391</v>
       </c>
       <c r="B30" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C30" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D30" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E30" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -2343,19 +2348,19 @@
         <v>2302</v>
       </c>
       <c r="B31" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C31" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F31" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G31">
         <v>1007</v>
@@ -2366,16 +2371,16 @@
         <v>2401</v>
       </c>
       <c r="B32" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C32" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D32" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E32" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -2389,16 +2394,16 @@
         <v>2491</v>
       </c>
       <c r="B33" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C33" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D33" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E33" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -2412,16 +2417,16 @@
         <v>2402</v>
       </c>
       <c r="B34" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C34" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D34" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E34" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -2435,16 +2440,16 @@
         <v>2901</v>
       </c>
       <c r="B35" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C35" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D35" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E35" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F35">
         <v>0</v>
@@ -2458,16 +2463,16 @@
         <v>2902</v>
       </c>
       <c r="B36" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C36" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D36" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E36" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -2481,16 +2486,16 @@
         <v>2903</v>
       </c>
       <c r="B37" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C37" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D37" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E37" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F37" t="s">
         <v>90</v>
@@ -2504,13 +2509,13 @@
         <v>3001</v>
       </c>
       <c r="B38" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C38" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F38" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -2521,10 +2526,10 @@
         <v>3101</v>
       </c>
       <c r="B39" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C39" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -2538,10 +2543,10 @@
         <v>3102</v>
       </c>
       <c r="B40" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C40" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F40" t="s">
         <v>16</v>
@@ -2555,16 +2560,16 @@
         <v>3103</v>
       </c>
       <c r="B41" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C41" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F41">
         <v>0</v>
       </c>
       <c r="G41" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -2572,10 +2577,10 @@
         <v>3104</v>
       </c>
       <c r="B42" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C42" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F42">
         <v>0</v>
@@ -2589,10 +2594,10 @@
         <v>3105</v>
       </c>
       <c r="B43" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C43" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F43">
         <v>0</v>
@@ -2606,16 +2611,16 @@
         <v>3106</v>
       </c>
       <c r="B44" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C44" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F44">
         <v>0</v>
       </c>
       <c r="G44" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -2623,10 +2628,10 @@
         <v>3201</v>
       </c>
       <c r="B45" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C45" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F45">
         <v>0</v>
@@ -2640,10 +2645,10 @@
         <v>3301</v>
       </c>
       <c r="B46" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C46" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F46">
         <v>0</v>
@@ -2657,10 +2662,10 @@
         <v>3401</v>
       </c>
       <c r="B47" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C47" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F47">
         <v>0</v>
@@ -2674,10 +2679,10 @@
         <v>9001</v>
       </c>
       <c r="B48" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C48" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F48">
         <v>0</v>
@@ -2691,10 +2696,10 @@
         <v>9002</v>
       </c>
       <c r="B49" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C49" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F49">
         <v>0</v>
@@ -2708,10 +2713,10 @@
         <v>9101</v>
       </c>
       <c r="B50" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C50" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F50">
         <v>0</v>
@@ -2725,10 +2730,10 @@
         <v>9102</v>
       </c>
       <c r="B51" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C51" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F51">
         <v>0</v>
@@ -2742,10 +2747,10 @@
         <v>9103</v>
       </c>
       <c r="B52" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C52" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F52">
         <v>0</v>
@@ -2759,10 +2764,10 @@
         <v>9104</v>
       </c>
       <c r="B53" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C53" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F53">
         <v>0</v>
@@ -2776,10 +2781,10 @@
         <v>9201</v>
       </c>
       <c r="B54" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C54" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F54">
         <v>0</v>
@@ -2793,10 +2798,10 @@
         <v>9202</v>
       </c>
       <c r="B55" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C55" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F55">
         <v>0</v>
@@ -2810,10 +2815,10 @@
         <v>9301</v>
       </c>
       <c r="B56" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C56" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F56">
         <v>0</v>
@@ -2827,10 +2832,10 @@
         <v>9302</v>
       </c>
       <c r="B57" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C57" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F57">
         <v>0</v>
@@ -2844,10 +2849,10 @@
         <v>9901</v>
       </c>
       <c r="B58" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C58" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F58">
         <v>0</v>
@@ -2861,10 +2866,10 @@
         <v>9902</v>
       </c>
       <c r="B59" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C59" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F59">
         <v>0</v>

--- a/Assets/Excel/SkillDesc.xlsx
+++ b/Assets/Excel/SkillDesc.xlsx
@@ -1654,11 +1654,11 @@
   <dimension ref="A1:G59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D15" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E5" sqref="E5"/>
+      <selection pane="bottomRight" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
